--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a8303/git/trade-record/records/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a8303/git/my-trade/files/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="17">
   <si>
     <t>成交時間</t>
   </si>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1292,6 +1292,166 @@
         <v>-1582</v>
       </c>
     </row>
+    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43070.510416666664</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10625</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10609</v>
+      </c>
+      <c r="H27" s="3">
+        <v>60</v>
+      </c>
+      <c r="I27" s="3">
+        <v>22</v>
+      </c>
+      <c r="J27" s="3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43070.531273148146</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10600</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10629</v>
+      </c>
+      <c r="H28" s="3">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3">
+        <v>22</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-1532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43075.370162037034</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10573</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10548</v>
+      </c>
+      <c r="H29" s="3">
+        <v>60</v>
+      </c>
+      <c r="I29" s="3">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-1332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43074.946053240739</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10551</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>10558</v>
+      </c>
+      <c r="H30" s="3">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3">
+        <v>22</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43076.5625</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10512</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10370</v>
+      </c>
+      <c r="H31" s="3">
+        <v>60</v>
+      </c>
+      <c r="I31" s="3">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4">
+        <v>7019</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="17">
   <si>
     <t>成交時間</t>
   </si>
@@ -446,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1452,6 +1452,166 @@
         <v>7019</v>
       </c>
     </row>
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43080.532638888886</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10472</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10483</v>
+      </c>
+      <c r="H32" s="3">
+        <v>60</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43081.447962962964</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10346</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10429</v>
+      </c>
+      <c r="H33" s="3">
+        <v>60</v>
+      </c>
+      <c r="I33" s="3">
+        <v>20</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43082.481944444444</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10448</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10451</v>
+      </c>
+      <c r="H34" s="3">
+        <v>60</v>
+      </c>
+      <c r="I34" s="3">
+        <v>20</v>
+      </c>
+      <c r="J34" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43084.447951388887</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10430</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10429</v>
+      </c>
+      <c r="H35" s="3">
+        <v>60</v>
+      </c>
+      <c r="I35" s="3">
+        <v>20</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43087.417372685188</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10460</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10499</v>
+      </c>
+      <c r="H36" s="3">
+        <v>60</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20</v>
+      </c>
+      <c r="J36" s="4">
+        <v>-2030</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="18">
   <si>
     <t>成交時間</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>小型台指01</t>
+  </si>
+  <si>
+    <t>小型台指02</t>
   </si>
 </sst>
 </file>
@@ -446,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1612,6 +1615,230 @@
         <v>-2030</v>
       </c>
     </row>
+    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43088.531261574077</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10476</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10449</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>20</v>
+      </c>
+      <c r="J37" s="4">
+        <v>-1430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43089.399074074077</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>10505</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10494</v>
+      </c>
+      <c r="H38" s="3">
+        <v>60</v>
+      </c>
+      <c r="I38" s="3">
+        <v>21</v>
+      </c>
+      <c r="J38" s="3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43089.411168981482</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10498</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10487</v>
+      </c>
+      <c r="H39" s="3">
+        <v>60</v>
+      </c>
+      <c r="I39" s="3">
+        <v>20</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43090.47152777778</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10504</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10507</v>
+      </c>
+      <c r="H40" s="3">
+        <v>180</v>
+      </c>
+      <c r="I40" s="3">
+        <v>65</v>
+      </c>
+      <c r="J40" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43091.406712962962</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10514</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10473</v>
+      </c>
+      <c r="H41" s="3">
+        <v>60</v>
+      </c>
+      <c r="I41" s="3">
+        <v>21</v>
+      </c>
+      <c r="J41" s="4">
+        <v>-2131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43095.447974537034</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10515</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10426</v>
+      </c>
+      <c r="H42" s="3">
+        <v>60</v>
+      </c>
+      <c r="I42" s="3">
+        <v>21</v>
+      </c>
+      <c r="J42" s="4">
+        <v>-4481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43096.959317129629</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10498</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10487</v>
+      </c>
+      <c r="H43" s="3">
+        <v>120</v>
+      </c>
+      <c r="I43" s="3">
+        <v>40</v>
+      </c>
+      <c r="J43" s="3">
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="data" sheetId="1" r:id="rId1"/>
+    <sheet name="all" sheetId="1" r:id="rId1"/>
+    <sheet name="2017" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="18">
   <si>
     <t>成交時間</t>
   </si>
@@ -160,7 +161,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -168,6 +169,8 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1839,6 +1842,1496 @@
         <v>940</v>
       </c>
     </row>
+    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="7">
+        <v>43127.959317129629</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="6">
+        <v>1</v>
+      </c>
+      <c r="E44" s="8">
+        <v>10498</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="6">
+        <v>10487</v>
+      </c>
+      <c r="H44" s="6">
+        <v>120</v>
+      </c>
+      <c r="I44" s="6">
+        <v>40</v>
+      </c>
+      <c r="J44" s="6">
+        <v>11750</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="7">
+        <v>43127.959317129629</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="6">
+        <v>1</v>
+      </c>
+      <c r="E45" s="8">
+        <v>10498</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="6">
+        <v>10487</v>
+      </c>
+      <c r="H45" s="6">
+        <v>120</v>
+      </c>
+      <c r="I45" s="6">
+        <v>40</v>
+      </c>
+      <c r="J45" s="6">
+        <v>-120</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="7">
+        <v>43127.959317129629</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="6">
+        <v>1</v>
+      </c>
+      <c r="E46" s="8">
+        <v>10498</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="6">
+        <v>10487</v>
+      </c>
+      <c r="H46" s="6">
+        <v>120</v>
+      </c>
+      <c r="I46" s="6">
+        <v>40</v>
+      </c>
+      <c r="J46" s="6">
+        <v>12650</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43010.571527777778</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10424</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10449</v>
+      </c>
+      <c r="H2" s="3">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43011.524305555555</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10428</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10464</v>
+      </c>
+      <c r="H3" s="3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-1880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43014.47016203704</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10511</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10520</v>
+      </c>
+      <c r="H4" s="3">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43019.46197916667</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10642</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10609</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-1732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43021.470879629633</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10683</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10686</v>
+      </c>
+      <c r="H6" s="3">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43021.375</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10663</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10683</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43024.551400462966</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10755</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10758</v>
+      </c>
+      <c r="H8" s="3">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43025.466747685183</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10751</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10748</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43026.582430555558</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10746</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10728</v>
+      </c>
+      <c r="H10" s="3">
+        <v>60</v>
+      </c>
+      <c r="I10" s="3">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43026.400671296295</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10449</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10732</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4">
+        <v>14069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43027.49596064815</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10770</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10777</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43031.424305555556</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10777</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10738</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3">
+        <v>22</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-2032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43032.513020833336</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10741</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10743</v>
+      </c>
+      <c r="H14" s="3">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43033.514016203706</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10773</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10741</v>
+      </c>
+      <c r="H15" s="3">
+        <v>60</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-1682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43039.564583333333</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10766</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10779</v>
+      </c>
+      <c r="H16" s="3">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43042.454861111109</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10765</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10771</v>
+      </c>
+      <c r="H17" s="3">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43042.406261574077</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10805</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10744</v>
+      </c>
+      <c r="H18" s="3">
+        <v>60</v>
+      </c>
+      <c r="I18" s="3">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-3132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43046.464606481481</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10791</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10792</v>
+      </c>
+      <c r="H19" s="3">
+        <v>60</v>
+      </c>
+      <c r="I19" s="3">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43048.492395833331</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10799</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10809</v>
+      </c>
+      <c r="H20" s="3">
+        <v>60</v>
+      </c>
+      <c r="I20" s="3">
+        <v>22</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43053.542361111111</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10690</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10677</v>
+      </c>
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+      <c r="I21" s="3">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43056.448946759258</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10646</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10689</v>
+      </c>
+      <c r="H22" s="3">
+        <v>60</v>
+      </c>
+      <c r="I22" s="3">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-2232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43060.375</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10684</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10697</v>
+      </c>
+      <c r="H23" s="3">
+        <v>60</v>
+      </c>
+      <c r="I23" s="3">
+        <v>22</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43066.385416666664</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10695</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10816</v>
+      </c>
+      <c r="H24" s="3">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43066.448171296295</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10745</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10758</v>
+      </c>
+      <c r="H25" s="3">
+        <v>60</v>
+      </c>
+      <c r="I25" s="3">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43068.443749999999</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10762</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10732</v>
+      </c>
+      <c r="H26" s="3">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3">
+        <v>22</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-1582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43070.510416666664</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10625</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10609</v>
+      </c>
+      <c r="H27" s="3">
+        <v>60</v>
+      </c>
+      <c r="I27" s="3">
+        <v>22</v>
+      </c>
+      <c r="J27" s="3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43070.531273148146</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10600</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10629</v>
+      </c>
+      <c r="H28" s="3">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3">
+        <v>22</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-1532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43075.370162037034</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10573</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10548</v>
+      </c>
+      <c r="H29" s="3">
+        <v>60</v>
+      </c>
+      <c r="I29" s="3">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-1332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43074.946053240739</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10551</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>10558</v>
+      </c>
+      <c r="H30" s="3">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3">
+        <v>22</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43076.5625</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10512</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10370</v>
+      </c>
+      <c r="H31" s="3">
+        <v>60</v>
+      </c>
+      <c r="I31" s="3">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4">
+        <v>7019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43080.532638888886</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10472</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10483</v>
+      </c>
+      <c r="H32" s="3">
+        <v>60</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43081.447962962964</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10346</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10429</v>
+      </c>
+      <c r="H33" s="3">
+        <v>60</v>
+      </c>
+      <c r="I33" s="3">
+        <v>20</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43082.481944444444</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10448</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10451</v>
+      </c>
+      <c r="H34" s="3">
+        <v>60</v>
+      </c>
+      <c r="I34" s="3">
+        <v>20</v>
+      </c>
+      <c r="J34" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43084.447951388887</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10430</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10429</v>
+      </c>
+      <c r="H35" s="3">
+        <v>60</v>
+      </c>
+      <c r="I35" s="3">
+        <v>20</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43087.417372685188</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10460</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10499</v>
+      </c>
+      <c r="H36" s="3">
+        <v>60</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20</v>
+      </c>
+      <c r="J36" s="4">
+        <v>-2030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43088.531261574077</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10476</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10449</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>20</v>
+      </c>
+      <c r="J37" s="4">
+        <v>-1430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43089.399074074077</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>10505</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10494</v>
+      </c>
+      <c r="H38" s="3">
+        <v>60</v>
+      </c>
+      <c r="I38" s="3">
+        <v>21</v>
+      </c>
+      <c r="J38" s="3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43089.411168981482</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10498</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10487</v>
+      </c>
+      <c r="H39" s="3">
+        <v>60</v>
+      </c>
+      <c r="I39" s="3">
+        <v>20</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43090.47152777778</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10504</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10507</v>
+      </c>
+      <c r="H40" s="3">
+        <v>180</v>
+      </c>
+      <c r="I40" s="3">
+        <v>65</v>
+      </c>
+      <c r="J40" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43091.406712962962</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10514</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10473</v>
+      </c>
+      <c r="H41" s="3">
+        <v>60</v>
+      </c>
+      <c r="I41" s="3">
+        <v>21</v>
+      </c>
+      <c r="J41" s="4">
+        <v>-2131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43095.447974537034</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10515</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10426</v>
+      </c>
+      <c r="H42" s="3">
+        <v>60</v>
+      </c>
+      <c r="I42" s="3">
+        <v>21</v>
+      </c>
+      <c r="J42" s="4">
+        <v>-4481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43096.959317129629</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3">
+        <v>2</v>
+      </c>
+      <c r="E43" s="4">
+        <v>10498</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10487</v>
+      </c>
+      <c r="H43" s="3">
+        <v>120</v>
+      </c>
+      <c r="I43" s="3">
+        <v>40</v>
+      </c>
+      <c r="J43" s="3">
+        <v>940</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="2017" sheetId="2" r:id="rId2"/>
+    <sheet name="tmp" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="22">
   <si>
     <t>成交時間</t>
   </si>
@@ -83,12 +84,24 @@
   <si>
     <t>小型台指02</t>
   </si>
+  <si>
+    <t>小型台指08</t>
+  </si>
+  <si>
+    <t>--</t>
+  </si>
+  <si>
+    <t>小型台指09</t>
+  </si>
+  <si>
+    <t>小型台指03</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,6 +149,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FFC00000"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -161,7 +180,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -169,8 +188,9 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -452,10 +472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J47" sqref="J47"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72:J72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1844,98 +1864,931 @@
     </row>
     <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A44" s="7">
-        <v>43127.959317129629</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C44" s="6" t="s">
+        <v>43109.395833333336</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D44" s="6">
-        <v>1</v>
-      </c>
-      <c r="E44" s="8">
-        <v>10498</v>
-      </c>
-      <c r="F44" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="6">
-        <v>10487</v>
-      </c>
-      <c r="H44" s="6">
+      <c r="D44" s="8">
+        <v>1</v>
+      </c>
+      <c r="E44" s="9">
+        <v>10650</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="8">
+        <v>10876</v>
+      </c>
+      <c r="H44" s="8">
+        <v>60</v>
+      </c>
+      <c r="I44" s="8">
+        <v>22</v>
+      </c>
+      <c r="J44" s="9">
+        <f>-50-32-11</f>
+        <v>-93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43109.395833333336</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D45" s="3">
+        <v>1</v>
+      </c>
+      <c r="E45" s="4">
+        <v>10650</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10876</v>
+      </c>
+      <c r="H45" s="3">
+        <v>60</v>
+      </c>
+      <c r="I45" s="3">
+        <v>22</v>
+      </c>
+      <c r="J45" s="4">
+        <v>11218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43110.500034722223</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>10617</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10822</v>
+      </c>
+      <c r="H46" s="3">
+        <v>60</v>
+      </c>
+      <c r="I46" s="3">
+        <v>22</v>
+      </c>
+      <c r="J46" s="4">
+        <v>10168</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43112.385416666664</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10878</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10831</v>
+      </c>
+      <c r="H47" s="3">
+        <v>60</v>
+      </c>
+      <c r="I47" s="3">
+        <v>22</v>
+      </c>
+      <c r="J47" s="4">
+        <v>2268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43112.505555555559</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="3">
+        <v>2</v>
+      </c>
+      <c r="E48" s="4">
+        <v>10878.5</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="3">
+        <v>10886</v>
+      </c>
+      <c r="H48" s="3">
         <v>120</v>
       </c>
-      <c r="I44" s="6">
+      <c r="I48" s="3">
+        <v>44</v>
+      </c>
+      <c r="J48" s="3">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>43118.560289351852</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="3">
+        <v>2</v>
+      </c>
+      <c r="E49" s="4">
+        <v>11065</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="3">
+        <v>11083</v>
+      </c>
+      <c r="H49" s="3">
+        <v>120</v>
+      </c>
+      <c r="I49" s="3">
+        <v>44</v>
+      </c>
+      <c r="J49" s="4">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>43119.500694444447</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="3">
+        <v>2</v>
+      </c>
+      <c r="E50" s="4">
+        <v>11115</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="3">
+        <v>11114</v>
+      </c>
+      <c r="H50" s="3">
+        <v>120</v>
+      </c>
+      <c r="I50" s="3">
+        <v>44</v>
+      </c>
+      <c r="J50" s="3">
+        <v>-264</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>43123.416666666664</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="3">
+        <v>2</v>
+      </c>
+      <c r="E51" s="4">
+        <v>11219</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="3">
+        <v>11250</v>
+      </c>
+      <c r="H51" s="3">
+        <v>120</v>
+      </c>
+      <c r="I51" s="3">
+        <v>44</v>
+      </c>
+      <c r="J51" s="4">
+        <v>-3264</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>43123.537499999999</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="3">
+        <v>2</v>
+      </c>
+      <c r="E52" s="4">
+        <v>11239</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="3">
+        <v>11230</v>
+      </c>
+      <c r="H52" s="3">
+        <v>120</v>
+      </c>
+      <c r="I52" s="3">
+        <v>44</v>
+      </c>
+      <c r="J52" s="3">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>43125.518055555556</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="3">
+        <v>2</v>
+      </c>
+      <c r="E53" s="4">
+        <v>11157</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="3">
+        <v>11170</v>
+      </c>
+      <c r="H53" s="3">
+        <v>120</v>
+      </c>
+      <c r="I53" s="3">
+        <v>44</v>
+      </c>
+      <c r="J53" s="4">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>43126.459722222222</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="3">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4">
+        <v>11130</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11136</v>
+      </c>
+      <c r="H54" s="3">
+        <v>120</v>
+      </c>
+      <c r="I54" s="3">
+        <v>44</v>
+      </c>
+      <c r="J54" s="3">
+        <v>-764</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>43129.462500000001</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="3">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4">
+        <v>11204</v>
+      </c>
+      <c r="F55" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="3">
+        <v>11182</v>
+      </c>
+      <c r="H55" s="3">
+        <v>120</v>
+      </c>
+      <c r="I55" s="3">
+        <v>44</v>
+      </c>
+      <c r="J55" s="4">
+        <v>-2364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>43130.446643518517</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="3">
+        <v>2</v>
+      </c>
+      <c r="E56" s="4">
+        <v>11183</v>
+      </c>
+      <c r="F56" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="3">
+        <v>11172</v>
+      </c>
+      <c r="H56" s="3">
+        <v>120</v>
+      </c>
+      <c r="I56" s="3">
+        <v>44</v>
+      </c>
+      <c r="J56" s="4">
+        <v>-1264</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>43131.469895833332</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="3">
+        <v>1</v>
+      </c>
+      <c r="E57" s="4">
+        <v>11171</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H57" s="3">
+        <v>60</v>
+      </c>
+      <c r="I57" s="3">
+        <v>22</v>
+      </c>
+      <c r="J57" s="4">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>43131.469895833332</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="3">
+        <v>1</v>
+      </c>
+      <c r="E58" s="4">
+        <v>11171</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="3">
+        <v>11100</v>
+      </c>
+      <c r="H58" s="3">
+        <v>60</v>
+      </c>
+      <c r="I58" s="3">
+        <v>22</v>
+      </c>
+      <c r="J58" s="4">
+        <v>3468</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>43132.486840277779</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="3">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4">
+        <v>11169</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="3">
+        <v>11175</v>
+      </c>
+      <c r="H59" s="3">
+        <v>120</v>
+      </c>
+      <c r="I59" s="3">
+        <v>44</v>
+      </c>
+      <c r="J59" s="3">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>43132.406678240739</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D60" s="3">
+        <v>1</v>
+      </c>
+      <c r="E60" s="4">
+        <v>11107</v>
+      </c>
+      <c r="F60" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="3">
+        <v>11174</v>
+      </c>
+      <c r="H60" s="3">
+        <v>60</v>
+      </c>
+      <c r="I60" s="3">
+        <v>22</v>
+      </c>
+      <c r="J60" s="4">
+        <v>-3432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>43133.375023148146</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" s="3">
+        <v>1</v>
+      </c>
+      <c r="E61" s="4">
+        <v>11170</v>
+      </c>
+      <c r="F61" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="3">
+        <v>11089</v>
+      </c>
+      <c r="H61" s="3">
+        <v>60</v>
+      </c>
+      <c r="I61" s="3">
+        <v>22</v>
+      </c>
+      <c r="J61" s="4">
+        <v>-4132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>43136.462083333332</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="3">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4">
+        <v>10875</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="3">
+        <v>10891</v>
+      </c>
+      <c r="H62" s="3">
+        <v>120</v>
+      </c>
+      <c r="I62" s="3">
+        <v>44</v>
+      </c>
+      <c r="J62" s="4">
+        <v>-1764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>43136.548425925925</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="3">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4">
+        <v>10930.5</v>
+      </c>
+      <c r="F63" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="3">
+        <v>10947</v>
+      </c>
+      <c r="H63" s="3">
+        <v>120</v>
+      </c>
+      <c r="I63" s="3">
+        <v>44</v>
+      </c>
+      <c r="J63" s="4">
+        <v>-1814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43136.445694444446</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="3">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4">
+        <v>10892.5</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10878</v>
+      </c>
+      <c r="H64" s="3">
+        <v>120</v>
+      </c>
+      <c r="I64" s="3">
+        <v>44</v>
+      </c>
+      <c r="J64" s="4">
+        <v>-1614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43137.407256944447</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="3">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4">
+        <v>10615.5</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3">
+        <v>10544</v>
+      </c>
+      <c r="H65" s="3">
+        <v>120</v>
+      </c>
+      <c r="I65" s="3">
+        <v>44</v>
+      </c>
+      <c r="J65" s="4">
+        <v>-7314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43138.023946759262</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4">
+        <v>10315</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10496</v>
+      </c>
+      <c r="H66" s="3">
+        <v>120</v>
+      </c>
+      <c r="I66" s="3">
         <v>40</v>
       </c>
-      <c r="J44" s="6">
-        <v>11750</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="7">
-        <v>43127.959317129629</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D45" s="6">
-        <v>1</v>
-      </c>
-      <c r="E45" s="8">
-        <v>10498</v>
-      </c>
-      <c r="F45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="6">
-        <v>10487</v>
-      </c>
-      <c r="H45" s="6">
+      <c r="J66" s="4">
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43138.101782407408</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="3">
+        <v>1</v>
+      </c>
+      <c r="E67" s="4">
+        <v>10536</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3">
+        <v>10541</v>
+      </c>
+      <c r="H67" s="3">
+        <v>60</v>
+      </c>
+      <c r="I67" s="3">
+        <v>22</v>
+      </c>
+      <c r="J67" s="3">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43138.101782407408</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="3">
+        <v>1</v>
+      </c>
+      <c r="E68" s="4">
+        <v>10536</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3">
+        <v>10540</v>
+      </c>
+      <c r="H68" s="3">
+        <v>60</v>
+      </c>
+      <c r="I68" s="3">
+        <v>22</v>
+      </c>
+      <c r="J68" s="3">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43138.836238425924</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4">
+        <v>10563</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3">
+        <v>10559</v>
+      </c>
+      <c r="H69" s="3">
         <v>120</v>
       </c>
-      <c r="I45" s="6">
-        <v>40</v>
-      </c>
-      <c r="J45" s="6">
-        <v>-120</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A46" s="7">
-        <v>43127.959317129629</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D46" s="6">
-        <v>1</v>
-      </c>
-      <c r="E46" s="8">
-        <v>10498</v>
-      </c>
-      <c r="F46" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="G46" s="6">
-        <v>10487</v>
-      </c>
-      <c r="H46" s="6">
+      <c r="I69" s="3">
+        <v>44</v>
+      </c>
+      <c r="J69" s="3">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43138.985775462963</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="3">
+        <v>2</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10556</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3">
+        <v>10593</v>
+      </c>
+      <c r="H70" s="3">
         <v>120</v>
       </c>
-      <c r="I46" s="6">
-        <v>40</v>
-      </c>
-      <c r="J46" s="6">
-        <v>12650</v>
+      <c r="I70" s="3">
+        <v>44</v>
+      </c>
+      <c r="J70" s="4">
+        <v>-3864</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43139.370937500003</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="3">
+        <v>2</v>
+      </c>
+      <c r="E71" s="4">
+        <v>10594</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3">
+        <v>10544</v>
+      </c>
+      <c r="H71" s="3">
+        <v>120</v>
+      </c>
+      <c r="I71" s="3">
+        <v>44</v>
+      </c>
+      <c r="J71" s="4">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>43139.444988425923</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="3">
+        <v>1</v>
+      </c>
+      <c r="E72" s="4">
+        <v>10493</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="3">
+        <v>10524</v>
+      </c>
+      <c r="H72" s="3">
+        <v>60</v>
+      </c>
+      <c r="I72" s="3">
+        <v>21</v>
+      </c>
+      <c r="J72" s="4">
+        <v>-1631</v>
       </c>
     </row>
   </sheetData>
@@ -3335,4 +4188,1321 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K37"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9:V20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
+        <v>42948.36891203704</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="3">
+        <v>4</v>
+      </c>
+      <c r="E1" s="4">
+        <v>10375.25</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="3">
+        <v>10387</v>
+      </c>
+      <c r="H1" s="3">
+        <v>240</v>
+      </c>
+      <c r="I1" s="3">
+        <v>80</v>
+      </c>
+      <c r="J1" s="4">
+        <v>-2670</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42956.464618055557</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3">
+        <v>7</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10437</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10447</v>
+      </c>
+      <c r="H2" s="3">
+        <v>420</v>
+      </c>
+      <c r="I2" s="3">
+        <v>142</v>
+      </c>
+      <c r="J2" s="4">
+        <v>2938</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42956.999965277777</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10448</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10440</v>
+      </c>
+      <c r="H3" s="3">
+        <v>120</v>
+      </c>
+      <c r="I3" s="3">
+        <v>40</v>
+      </c>
+      <c r="J3" s="3">
+        <v>640</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>42957.379583333335</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10479</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10451</v>
+      </c>
+      <c r="H4" s="3">
+        <v>240</v>
+      </c>
+      <c r="I4" s="3">
+        <v>80</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-5920</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>42957.459108796298</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>4</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10368</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10327</v>
+      </c>
+      <c r="H5" s="3">
+        <v>240</v>
+      </c>
+      <c r="I5" s="3">
+        <v>80</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-8520</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>42961.398009259261</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10263</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10270</v>
+      </c>
+      <c r="H6" s="3">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3">
+        <v>20</v>
+      </c>
+      <c r="J6" s="3">
+        <v>270</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>42962.417997685188</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="3">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10312</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10272</v>
+      </c>
+      <c r="H7" s="3">
+        <v>240</v>
+      </c>
+      <c r="I7" s="3">
+        <v>80</v>
+      </c>
+      <c r="J7" s="4">
+        <v>-8320</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>42965.453958333332</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10212</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10253</v>
+      </c>
+      <c r="H8" s="3">
+        <v>180</v>
+      </c>
+      <c r="I8" s="3">
+        <v>60</v>
+      </c>
+      <c r="J8" s="4">
+        <v>-6390</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>42965.38417824074</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="3">
+        <v>4</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10269</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10229</v>
+      </c>
+      <c r="H9" s="3">
+        <v>240</v>
+      </c>
+      <c r="I9" s="3">
+        <v>80</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-8320</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>42968.430069444446</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10222</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10261</v>
+      </c>
+      <c r="H10" s="3">
+        <v>120</v>
+      </c>
+      <c r="I10" s="3">
+        <v>40</v>
+      </c>
+      <c r="J10" s="4">
+        <v>-4060</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>42968.430069444446</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10222</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10262</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3">
+        <v>20</v>
+      </c>
+      <c r="J11" s="4">
+        <v>-2080</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>42969.561481481483</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="3">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10360</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10352</v>
+      </c>
+      <c r="H12" s="3">
+        <v>180</v>
+      </c>
+      <c r="I12" s="3">
+        <v>60</v>
+      </c>
+      <c r="J12" s="4">
+        <v>-1440</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>42970.488171296296</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="3">
+        <v>3</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10390</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10377</v>
+      </c>
+      <c r="H13" s="3">
+        <v>180</v>
+      </c>
+      <c r="I13" s="3">
+        <v>60</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1710</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>42975.364849537036</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="3">
+        <v>3</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10389</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10463</v>
+      </c>
+      <c r="H14" s="3">
+        <v>180</v>
+      </c>
+      <c r="I14" s="3">
+        <v>60</v>
+      </c>
+      <c r="J14" s="4">
+        <v>10860</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>42978.401493055557</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" s="3">
+        <v>3</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10548</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10563</v>
+      </c>
+      <c r="H15" s="3">
+        <v>180</v>
+      </c>
+      <c r="I15" s="3">
+        <v>66</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-2496</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>42978.545173611114</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="3">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10549</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10546</v>
+      </c>
+      <c r="H16" s="3">
+        <v>180</v>
+      </c>
+      <c r="I16" s="3">
+        <v>66</v>
+      </c>
+      <c r="J16" s="3">
+        <v>204</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>42978.412106481483</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10563</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10547</v>
+      </c>
+      <c r="H17" s="3">
+        <v>180</v>
+      </c>
+      <c r="I17" s="3">
+        <v>66</v>
+      </c>
+      <c r="J17" s="4">
+        <v>-2646</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>42979.399456018517</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" s="3">
+        <v>3</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10551</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10575</v>
+      </c>
+      <c r="H18" s="3">
+        <v>180</v>
+      </c>
+      <c r="I18" s="3">
+        <v>66</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-3846</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>42983.508715277778</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="3">
+        <v>3</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10545</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10559</v>
+      </c>
+      <c r="H19" s="3">
+        <v>180</v>
+      </c>
+      <c r="I19" s="3">
+        <v>66</v>
+      </c>
+      <c r="J19" s="4">
+        <v>-2346</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>42984.418761574074</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10561</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10558</v>
+      </c>
+      <c r="H20" s="3">
+        <v>180</v>
+      </c>
+      <c r="I20" s="3">
+        <v>66</v>
+      </c>
+      <c r="J20" s="3">
+        <v>204</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>42984.53197916667</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" s="3">
+        <v>3</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10509</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10527</v>
+      </c>
+      <c r="H21" s="3">
+        <v>180</v>
+      </c>
+      <c r="I21" s="3">
+        <v>66</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-2946</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>42985.467372685183</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10564</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10538</v>
+      </c>
+      <c r="H22" s="3">
+        <v>60</v>
+      </c>
+      <c r="I22" s="3">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-1382</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>42985.943402777775</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="3">
+        <v>2</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10491</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10502</v>
+      </c>
+      <c r="H23" s="3">
+        <v>120</v>
+      </c>
+      <c r="I23" s="3">
+        <v>42</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-1262</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>42986.569444444445</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10520</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10548</v>
+      </c>
+      <c r="H24" s="3">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1318</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>42989.506307870368</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10554</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10551</v>
+      </c>
+      <c r="H25" s="3">
+        <v>60</v>
+      </c>
+      <c r="I25" s="3">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3">
+        <v>68</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>42990.466678240744</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10583</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10571</v>
+      </c>
+      <c r="H26" s="3">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3">
+        <v>22</v>
+      </c>
+      <c r="J26" s="3">
+        <v>-682</v>
+      </c>
+      <c r="K26" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>42991.413888888892</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10595</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10553</v>
+      </c>
+      <c r="H27" s="3">
+        <v>60</v>
+      </c>
+      <c r="I27" s="3">
+        <v>22</v>
+      </c>
+      <c r="J27" s="4">
+        <v>-2182</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>42992.511828703704</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10542</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10536</v>
+      </c>
+      <c r="H28" s="3">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3">
+        <v>22</v>
+      </c>
+      <c r="J28" s="3">
+        <v>-382</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>42993.491759259261</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10508</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10542</v>
+      </c>
+      <c r="H29" s="3">
+        <v>60</v>
+      </c>
+      <c r="I29" s="3">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-1782</v>
+      </c>
+      <c r="K29" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>42997.437511574077</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10604</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>10611</v>
+      </c>
+      <c r="H30" s="3">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3">
+        <v>22</v>
+      </c>
+      <c r="J30" s="3">
+        <v>268</v>
+      </c>
+      <c r="K30" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>42998.387013888889</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10544</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10519</v>
+      </c>
+      <c r="H31" s="3">
+        <v>60</v>
+      </c>
+      <c r="I31" s="3">
+        <v>22</v>
+      </c>
+      <c r="J31" s="4">
+        <v>-1332</v>
+      </c>
+      <c r="K31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43000.395833333336</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10520</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10514</v>
+      </c>
+      <c r="H32" s="3">
+        <v>60</v>
+      </c>
+      <c r="I32" s="3">
+        <v>22</v>
+      </c>
+      <c r="J32" s="3">
+        <v>-382</v>
+      </c>
+      <c r="K32" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43004.418761574074</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10353</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10317</v>
+      </c>
+      <c r="H33" s="3">
+        <v>60</v>
+      </c>
+      <c r="I33" s="3">
+        <v>20</v>
+      </c>
+      <c r="J33" s="4">
+        <v>-1880</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43005.46597222222</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10329</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10327</v>
+      </c>
+      <c r="H34" s="3">
+        <v>60</v>
+      </c>
+      <c r="I34" s="3">
+        <v>20</v>
+      </c>
+      <c r="J34" s="3">
+        <v>-180</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43006.472939814812</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10303</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10299</v>
+      </c>
+      <c r="H35" s="3">
+        <v>60</v>
+      </c>
+      <c r="I35" s="3">
+        <v>20</v>
+      </c>
+      <c r="J35" s="3">
+        <v>120</v>
+      </c>
+      <c r="K35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43007.469456018516</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10303</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10298</v>
+      </c>
+      <c r="H36" s="3">
+        <v>60</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20</v>
+      </c>
+      <c r="J36" s="3">
+        <v>170</v>
+      </c>
+      <c r="K36" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43007.531388888892</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10309</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10295</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>20</v>
+      </c>
+      <c r="J37" s="3">
+        <v>620</v>
+      </c>
+      <c r="K37" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -13,8 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="2017" sheetId="2" r:id="rId2"/>
-    <sheet name="tmp" sheetId="3" r:id="rId3"/>
+    <sheet name="2018" sheetId="3" r:id="rId2"/>
+    <sheet name="2017" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="22">
   <si>
     <t>成交時間</t>
   </si>
@@ -85,23 +85,23 @@
     <t>小型台指02</t>
   </si>
   <si>
-    <t>小型台指08</t>
+    <t>小型台指03</t>
   </si>
   <si>
-    <t>--</t>
+    <t>華南期貨</t>
   </si>
   <si>
-    <t>小型台指09</t>
+    <t>x</t>
   </si>
   <si>
-    <t>小型台指03</t>
+    <t>小型台指04</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -155,6 +155,17 @@
       <name val="新細明體"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -180,7 +191,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -191,6 +202,16 @@
     <xf numFmtId="22" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -472,10 +493,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:J72"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,7 +504,7 @@
     <col min="1" max="1" width="28" customWidth="1"/>
     <col min="2" max="2" width="23.1640625" customWidth="1"/>
     <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -1885,7 +1906,7 @@
         <v>10876</v>
       </c>
       <c r="H44" s="8">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="I44" s="8">
         <v>22</v>
@@ -2344,451 +2365,1539 @@
       </c>
     </row>
     <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+      <c r="A59" s="12">
         <v>43132.486840277779</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D59" s="3">
+      <c r="B59" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="14">
         <v>2</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E59" s="15">
         <v>11169</v>
       </c>
-      <c r="F59" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="F59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="14">
         <v>11175</v>
       </c>
-      <c r="H59" s="3">
+      <c r="H59" s="14">
         <v>120</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="14">
         <v>44</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J59" s="14">
         <v>436</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+      <c r="A60" s="12">
         <v>43132.406678240739</v>
       </c>
-      <c r="B60" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C60" s="3" t="s">
+      <c r="B60" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D60" s="14">
+        <v>1</v>
+      </c>
+      <c r="E60" s="15">
+        <v>11107</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="14">
+        <v>11174</v>
+      </c>
+      <c r="H60" s="14">
+        <v>60</v>
+      </c>
+      <c r="I60" s="14">
+        <v>22</v>
+      </c>
+      <c r="J60" s="15">
+        <v>-3432</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>43133.375023148146</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="D61" s="14">
+        <v>1</v>
+      </c>
+      <c r="E61" s="15">
+        <v>11170</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="14">
+        <v>11089</v>
+      </c>
+      <c r="H61" s="14">
+        <v>60</v>
+      </c>
+      <c r="I61" s="14">
+        <v>22</v>
+      </c>
+      <c r="J61" s="15">
+        <v>-4132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>43136.462083333332</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="14">
+        <v>2</v>
+      </c>
+      <c r="E62" s="15">
+        <v>10875</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="14">
+        <v>10891</v>
+      </c>
+      <c r="H62" s="14">
+        <v>120</v>
+      </c>
+      <c r="I62" s="14">
+        <v>44</v>
+      </c>
+      <c r="J62" s="15">
+        <v>-1764</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>43136.548425925925</v>
+      </c>
+      <c r="B63" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="14">
+        <v>2</v>
+      </c>
+      <c r="E63" s="15">
+        <v>10930.5</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="14">
+        <v>10947</v>
+      </c>
+      <c r="H63" s="14">
+        <v>120</v>
+      </c>
+      <c r="I63" s="14">
+        <v>44</v>
+      </c>
+      <c r="J63" s="15">
+        <v>-1814</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="12">
+        <v>43136.445694444446</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C64" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="14">
+        <v>2</v>
+      </c>
+      <c r="E64" s="15">
+        <v>10892.5</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="14">
+        <v>10878</v>
+      </c>
+      <c r="H64" s="14">
+        <v>120</v>
+      </c>
+      <c r="I64" s="14">
+        <v>44</v>
+      </c>
+      <c r="J64" s="15">
+        <v>-1614</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="12">
+        <v>43137.407256944447</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C65" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="14">
+        <v>2</v>
+      </c>
+      <c r="E65" s="15">
+        <v>10615.5</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="14">
+        <v>10544</v>
+      </c>
+      <c r="H65" s="14">
+        <v>120</v>
+      </c>
+      <c r="I65" s="14">
+        <v>44</v>
+      </c>
+      <c r="J65" s="15">
+        <v>-7314</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="12">
+        <v>43138.023946759262</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C66" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D66" s="14">
+        <v>2</v>
+      </c>
+      <c r="E66" s="15">
+        <v>10315</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="14">
+        <v>10496</v>
+      </c>
+      <c r="H66" s="14">
+        <v>120</v>
+      </c>
+      <c r="I66" s="14">
+        <v>40</v>
+      </c>
+      <c r="J66" s="15">
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="12">
+        <v>43138.101782407408</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D67" s="14">
+        <v>1</v>
+      </c>
+      <c r="E67" s="15">
+        <v>10536</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="14">
+        <v>10541</v>
+      </c>
+      <c r="H67" s="14">
+        <v>60</v>
+      </c>
+      <c r="I67" s="14">
+        <v>22</v>
+      </c>
+      <c r="J67" s="14">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="12">
+        <v>43138.101782407408</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D68" s="14">
+        <v>1</v>
+      </c>
+      <c r="E68" s="15">
+        <v>10536</v>
+      </c>
+      <c r="F68" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="14">
+        <v>10540</v>
+      </c>
+      <c r="H68" s="14">
+        <v>60</v>
+      </c>
+      <c r="I68" s="14">
+        <v>22</v>
+      </c>
+      <c r="J68" s="14">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="12">
+        <v>43138.836238425924</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C69" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D69" s="14">
+        <v>2</v>
+      </c>
+      <c r="E69" s="15">
+        <v>10563</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="14">
+        <v>10559</v>
+      </c>
+      <c r="H69" s="14">
+        <v>120</v>
+      </c>
+      <c r="I69" s="14">
+        <v>44</v>
+      </c>
+      <c r="J69" s="14">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="12">
+        <v>43138.985775462963</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C70" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" s="14">
+        <v>2</v>
+      </c>
+      <c r="E70" s="15">
+        <v>10556</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="14">
+        <v>10593</v>
+      </c>
+      <c r="H70" s="14">
+        <v>120</v>
+      </c>
+      <c r="I70" s="14">
+        <v>44</v>
+      </c>
+      <c r="J70" s="15">
+        <v>-3864</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="12">
+        <v>43139.370937500003</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D71" s="14">
+        <v>2</v>
+      </c>
+      <c r="E71" s="15">
+        <v>10594</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="14">
+        <v>10544</v>
+      </c>
+      <c r="H71" s="14">
+        <v>120</v>
+      </c>
+      <c r="I71" s="14">
+        <v>44</v>
+      </c>
+      <c r="J71" s="15">
+        <v>4836</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A72" s="12">
+        <v>43139.444988425923</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C72" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="14">
+        <v>1</v>
+      </c>
+      <c r="E72" s="15">
+        <v>10493</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G72" s="14">
+        <v>10524</v>
+      </c>
+      <c r="H72" s="14">
+        <v>60</v>
+      </c>
+      <c r="I72" s="14">
         <v>21</v>
       </c>
-      <c r="D60" s="3">
-        <v>1</v>
-      </c>
-      <c r="E60" s="4">
-        <v>11107</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G60" s="3">
-        <v>11174</v>
-      </c>
-      <c r="H60" s="3">
-        <v>60</v>
-      </c>
-      <c r="I60" s="3">
-        <v>22</v>
-      </c>
-      <c r="J60" s="4">
-        <v>-3432</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
-        <v>43133.375023148146</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="J72" s="15">
+        <v>-1631</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A73" s="12">
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C73" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="14">
+        <v>1</v>
+      </c>
+      <c r="E73" s="15">
+        <v>10530</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G73" s="14">
+        <v>10513</v>
+      </c>
+      <c r="H73" s="14">
+        <v>60</v>
+      </c>
+      <c r="I73" s="14">
+        <v>22</v>
+      </c>
+      <c r="J73" s="14">
+        <v>-932</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A74" s="12">
+        <v>43140.627349537041</v>
+      </c>
+      <c r="B74" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C74" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="14">
+        <v>1</v>
+      </c>
+      <c r="E74" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G74" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H74" s="14">
+        <v>32</v>
+      </c>
+      <c r="I74" s="14">
+        <v>22</v>
+      </c>
+      <c r="J74" s="17">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A75" s="12">
+        <v>43140.627349537041</v>
+      </c>
+      <c r="B75" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="14">
+        <v>1</v>
+      </c>
+      <c r="E75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G75" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H75" s="14">
+        <v>32</v>
+      </c>
+      <c r="I75" s="14">
+        <v>22</v>
+      </c>
+      <c r="J75" s="18">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A76" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C76" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="14">
+        <v>2</v>
+      </c>
+      <c r="E76" s="15">
+        <v>10227</v>
+      </c>
+      <c r="F76" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G76" s="14">
+        <v>10408</v>
+      </c>
+      <c r="H76" s="14">
+        <v>120</v>
+      </c>
+      <c r="I76" s="14">
+        <v>40</v>
+      </c>
+      <c r="J76" s="15">
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A77" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B77" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="14">
+        <v>1</v>
+      </c>
+      <c r="E77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G77" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H77" s="14">
+        <v>32</v>
+      </c>
+      <c r="I77" s="14">
+        <v>22</v>
+      </c>
+      <c r="J77" s="10">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A78" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B78" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C78" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="14">
+        <v>1</v>
+      </c>
+      <c r="E78" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H78" s="14">
+        <v>32</v>
+      </c>
+      <c r="I78" s="14">
+        <v>22</v>
+      </c>
+      <c r="J78" s="10">
+        <v>-1502</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A79" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B79" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D79" s="14">
+        <v>1</v>
+      </c>
+      <c r="E79" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G79" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H79" s="14">
+        <v>32</v>
+      </c>
+      <c r="I79" s="14">
+        <v>22</v>
+      </c>
+      <c r="J79" s="10">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A80" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B80" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D80" s="14">
+        <v>1</v>
+      </c>
+      <c r="E80" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F80" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G80" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H80" s="14">
+        <v>32</v>
+      </c>
+      <c r="I80" s="14">
+        <v>22</v>
+      </c>
+      <c r="J80" s="10">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A81" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B81" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81" s="14">
+        <v>1</v>
+      </c>
+      <c r="E81" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G81" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H81" s="14">
+        <v>32</v>
+      </c>
+      <c r="I81" s="14">
+        <v>22</v>
+      </c>
+      <c r="J81" s="11">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A82" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B82" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D82" s="14">
+        <v>1</v>
+      </c>
+      <c r="E82" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F82" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G82" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H82" s="14">
+        <v>32</v>
+      </c>
+      <c r="I82" s="14">
+        <v>22</v>
+      </c>
+      <c r="J82" s="11">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A83" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B83" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H83" s="14">
+        <v>32</v>
+      </c>
+      <c r="I83" s="14">
+        <v>22</v>
+      </c>
+      <c r="J83" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A84" s="12">
+        <v>43153.541666666664</v>
+      </c>
+      <c r="B84" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D84" s="14">
+        <v>1</v>
+      </c>
+      <c r="E84" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F84" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G84" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H84" s="14">
+        <v>32</v>
+      </c>
+      <c r="I84" s="14">
+        <v>22</v>
+      </c>
+      <c r="J84" s="10">
+        <v>-1404</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A85" s="12">
+        <v>43157.541666666664</v>
+      </c>
+      <c r="B85" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="14">
+        <v>1</v>
+      </c>
+      <c r="E85" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G85" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H85" s="14">
+        <v>32</v>
+      </c>
+      <c r="I85" s="14">
+        <v>22</v>
+      </c>
+      <c r="J85" s="10">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A86" s="12">
+        <v>43158.541666666664</v>
+      </c>
+      <c r="B86" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="14">
+        <v>1</v>
+      </c>
+      <c r="E86" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F86" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G86" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H86" s="14">
+        <v>32</v>
+      </c>
+      <c r="I86" s="14">
+        <v>22</v>
+      </c>
+      <c r="J86" s="11">
+        <v>-754</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>43159.079236111109</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="3">
+        <v>2</v>
+      </c>
+      <c r="E87" s="4">
+        <v>10759</v>
+      </c>
+      <c r="F87" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G87" s="3">
+        <v>10772</v>
+      </c>
+      <c r="H87" s="3">
+        <v>120</v>
+      </c>
+      <c r="I87" s="3">
+        <v>44</v>
+      </c>
+      <c r="J87" s="4">
+        <v>-1464</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>43159.055092592593</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D61" s="3">
-        <v>1</v>
-      </c>
-      <c r="E61" s="4">
-        <v>11170</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="3">
-        <v>11089</v>
-      </c>
-      <c r="H61" s="3">
-        <v>60</v>
-      </c>
-      <c r="I61" s="3">
-        <v>22</v>
-      </c>
-      <c r="J61" s="4">
-        <v>-4132</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
-        <v>43136.462083333332</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="3">
+      <c r="D88" s="3">
+        <v>1</v>
+      </c>
+      <c r="E88" s="4">
+        <v>10629</v>
+      </c>
+      <c r="F88" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G88" s="3">
+        <v>10744</v>
+      </c>
+      <c r="H88" s="3">
+        <v>60</v>
+      </c>
+      <c r="I88" s="3">
+        <v>22</v>
+      </c>
+      <c r="J88" s="4">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>43159.055092592593</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D89" s="3">
+        <v>1</v>
+      </c>
+      <c r="E89" s="4">
+        <v>10629</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="3">
+        <v>10743</v>
+      </c>
+      <c r="H89" s="3">
+        <v>60</v>
+      </c>
+      <c r="I89" s="3">
+        <v>22</v>
+      </c>
+      <c r="J89" s="4">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A90" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B90" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D90" s="14">
         <v>2</v>
       </c>
-      <c r="E62" s="4">
-        <v>10875</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G62" s="3">
-        <v>10891</v>
-      </c>
-      <c r="H62" s="3">
-        <v>120</v>
-      </c>
-      <c r="I62" s="3">
-        <v>44</v>
-      </c>
-      <c r="J62" s="4">
-        <v>-1764</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
-        <v>43136.548425925925</v>
-      </c>
-      <c r="B63" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="3">
+      <c r="E90" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F90" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G90" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H90" s="14">
+        <v>32</v>
+      </c>
+      <c r="I90" s="14">
+        <v>22</v>
+      </c>
+      <c r="J90" s="10">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A91" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B91" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C91" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D91" s="14">
         <v>2</v>
       </c>
-      <c r="E63" s="4">
-        <v>10930.5</v>
-      </c>
-      <c r="F63" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G63" s="3">
-        <v>10947</v>
-      </c>
-      <c r="H63" s="3">
-        <v>120</v>
-      </c>
-      <c r="I63" s="3">
-        <v>44</v>
-      </c>
-      <c r="J63" s="4">
-        <v>-1814</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
-        <v>43136.445694444446</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="3">
+      <c r="E91" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G91" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H91" s="14">
+        <v>32</v>
+      </c>
+      <c r="I91" s="14">
+        <v>22</v>
+      </c>
+      <c r="J91" s="11">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A92" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B92" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C92" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D92" s="14">
+        <v>1</v>
+      </c>
+      <c r="E92" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F92" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G92" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H92" s="14">
+        <v>32</v>
+      </c>
+      <c r="I92" s="14">
+        <v>22</v>
+      </c>
+      <c r="J92" s="11">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A93" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B93" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D93" s="14">
+        <v>1</v>
+      </c>
+      <c r="E93" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H93" s="14">
+        <v>32</v>
+      </c>
+      <c r="I93" s="14">
+        <v>22</v>
+      </c>
+      <c r="J93" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A94" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B94" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C94" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94" s="14">
         <v>2</v>
       </c>
-      <c r="E64" s="4">
-        <v>10892.5</v>
-      </c>
-      <c r="F64" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G64" s="3">
-        <v>10878</v>
-      </c>
-      <c r="H64" s="3">
-        <v>120</v>
-      </c>
-      <c r="I64" s="3">
-        <v>44</v>
-      </c>
-      <c r="J64" s="4">
-        <v>-1614</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
-        <v>43137.407256944447</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C65" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="3">
+      <c r="E94" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F94" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H94" s="14">
+        <v>32</v>
+      </c>
+      <c r="I94" s="14">
+        <v>22</v>
+      </c>
+      <c r="J94" s="11">
+        <v>-2208</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A95" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B95" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C95" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D95" s="14">
         <v>2</v>
       </c>
-      <c r="E65" s="4">
-        <v>10615.5</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G65" s="3">
-        <v>10544</v>
-      </c>
-      <c r="H65" s="3">
-        <v>120</v>
-      </c>
-      <c r="I65" s="3">
-        <v>44</v>
-      </c>
-      <c r="J65" s="4">
-        <v>-7314</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
-        <v>43138.023946759262</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="3">
+      <c r="E95" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G95" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H95" s="14">
+        <v>32</v>
+      </c>
+      <c r="I95" s="14">
+        <v>22</v>
+      </c>
+      <c r="J95" s="11">
+        <v>-1408</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A96" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B96" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D96" s="14">
         <v>2</v>
       </c>
-      <c r="E66" s="4">
-        <v>10315</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="3">
-        <v>10496</v>
-      </c>
-      <c r="H66" s="3">
-        <v>120</v>
-      </c>
-      <c r="I66" s="3">
-        <v>40</v>
-      </c>
-      <c r="J66" s="4">
-        <v>17940</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
-        <v>43138.101782407408</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="3">
-        <v>1</v>
-      </c>
-      <c r="E67" s="4">
-        <v>10536</v>
-      </c>
-      <c r="F67" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G67" s="3">
-        <v>10541</v>
-      </c>
-      <c r="H67" s="3">
-        <v>60</v>
-      </c>
-      <c r="I67" s="3">
-        <v>22</v>
-      </c>
-      <c r="J67" s="3">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
-        <v>43138.101782407408</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D68" s="3">
-        <v>1</v>
-      </c>
-      <c r="E68" s="4">
-        <v>10536</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="3">
-        <v>10540</v>
-      </c>
-      <c r="H68" s="3">
-        <v>60</v>
-      </c>
-      <c r="I68" s="3">
-        <v>22</v>
-      </c>
-      <c r="J68" s="3">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
-        <v>43138.836238425924</v>
-      </c>
-      <c r="B69" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D69" s="3">
+      <c r="E96" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F96" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H96" s="14">
+        <v>32</v>
+      </c>
+      <c r="I96" s="14">
+        <v>22</v>
+      </c>
+      <c r="J96" s="11">
+        <v>-554</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A97" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B97" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D97" s="14">
         <v>2</v>
       </c>
-      <c r="E69" s="4">
-        <v>10563</v>
-      </c>
-      <c r="F69" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G69" s="3">
-        <v>10559</v>
-      </c>
-      <c r="H69" s="3">
-        <v>120</v>
-      </c>
-      <c r="I69" s="3">
-        <v>44</v>
-      </c>
-      <c r="J69" s="3">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
-        <v>43138.985775462963</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D70" s="3">
+      <c r="E97" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="14">
+        <v>32</v>
+      </c>
+      <c r="I97" s="14">
+        <v>22</v>
+      </c>
+      <c r="J97" s="11">
+        <v>-604</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A98" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B98" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C98" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D98" s="14">
         <v>2</v>
       </c>
-      <c r="E70" s="4">
-        <v>10556</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="3">
-        <v>10593</v>
-      </c>
-      <c r="H70" s="3">
-        <v>120</v>
-      </c>
-      <c r="I70" s="3">
-        <v>44</v>
-      </c>
-      <c r="J70" s="4">
-        <v>-3864</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
-        <v>43139.370937500003</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D71" s="3">
+      <c r="E98" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F98" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G98" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H98" s="14">
+        <v>32</v>
+      </c>
+      <c r="I98" s="14">
+        <v>22</v>
+      </c>
+      <c r="J98" s="11">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A99" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B99" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D99" s="14">
         <v>2</v>
       </c>
-      <c r="E71" s="4">
-        <v>10594</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G71" s="3">
-        <v>10544</v>
-      </c>
-      <c r="H71" s="3">
-        <v>120</v>
-      </c>
-      <c r="I71" s="3">
-        <v>44</v>
-      </c>
-      <c r="J71" s="4">
-        <v>4836</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
-        <v>43139.444988425923</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D72" s="3">
-        <v>1</v>
-      </c>
-      <c r="E72" s="4">
-        <v>10493</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="3">
-        <v>10524</v>
-      </c>
-      <c r="H72" s="3">
-        <v>60</v>
-      </c>
-      <c r="I72" s="3">
+      <c r="E99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G99" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H99" s="14">
+        <v>32</v>
+      </c>
+      <c r="I99" s="14">
+        <v>22</v>
+      </c>
+      <c r="J99" s="11">
+        <v>-3108</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A100" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B100" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C100" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100" s="14">
+        <v>2</v>
+      </c>
+      <c r="E100" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F100" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H100" s="14">
+        <v>32</v>
+      </c>
+      <c r="I100" s="14">
+        <v>22</v>
+      </c>
+      <c r="J100" s="11">
+        <v>-1008</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A101" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B101" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C101" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="14">
+        <v>2</v>
+      </c>
+      <c r="E101" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H101" s="14">
+        <v>32</v>
+      </c>
+      <c r="I101" s="14">
+        <v>22</v>
+      </c>
+      <c r="J101" s="11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A102" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B102" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C102" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D102" s="14">
+        <v>2</v>
+      </c>
+      <c r="E102" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F102" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H102" s="14">
+        <v>32</v>
+      </c>
+      <c r="I102" s="14">
+        <v>22</v>
+      </c>
+      <c r="J102" s="11">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A103" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="J72" s="4">
-        <v>-1631</v>
+      <c r="D103" s="3">
+        <v>1</v>
+      </c>
+      <c r="E103" s="4">
+        <v>10629</v>
+      </c>
+      <c r="F103" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" s="3">
+        <v>10743</v>
+      </c>
+      <c r="H103" s="3">
+        <v>60</v>
+      </c>
+      <c r="I103" s="3">
+        <v>22</v>
+      </c>
+      <c r="J103" s="4">
+        <v>-764</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A104" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B104" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104" s="14">
+        <v>2</v>
+      </c>
+      <c r="E104" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F104" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G104" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H104" s="14">
+        <v>32</v>
+      </c>
+      <c r="I104" s="14">
+        <v>22</v>
+      </c>
+      <c r="J104" s="11">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A105" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B105" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D105" s="14">
+        <v>2</v>
+      </c>
+      <c r="E105" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G105" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H105" s="14">
+        <v>32</v>
+      </c>
+      <c r="I105" s="14">
+        <v>22</v>
+      </c>
+      <c r="J105" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A106" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B106" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D106" s="14">
+        <v>2</v>
+      </c>
+      <c r="E106" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F106" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G106" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H106" s="14">
+        <v>32</v>
+      </c>
+      <c r="I106" s="14">
+        <v>22</v>
+      </c>
+      <c r="J106" s="11">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2798,15 +3907,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J43"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" customWidth="1"/>
+    <col min="2" max="2" width="23.1640625" customWidth="1"/>
+    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
@@ -2842,90 +3954,91 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>43010.571527777778</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10424</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10449</v>
-      </c>
-      <c r="H2" s="3">
-        <v>60</v>
-      </c>
-      <c r="I2" s="3">
-        <v>20</v>
-      </c>
-      <c r="J2" s="4">
-        <v>1170</v>
+      <c r="A2" s="7">
+        <v>43109.395833333336</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>10650</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="8">
+        <v>10876</v>
+      </c>
+      <c r="H2" s="8">
+        <v>32</v>
+      </c>
+      <c r="I2" s="8">
+        <v>22</v>
+      </c>
+      <c r="J2" s="9">
+        <f>-50-32-11</f>
+        <v>-93</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>43011.524305555555</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
+        <v>43109.395833333336</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D3" s="3">
         <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>10428</v>
+        <v>10650</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G3" s="3">
-        <v>10464</v>
+        <v>10876</v>
       </c>
       <c r="H3" s="3">
         <v>60</v>
       </c>
       <c r="I3" s="3">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4">
-        <v>-1880</v>
+        <v>11218</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>43014.47016203704</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>43110.500034722223</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D4" s="3">
         <v>1</v>
       </c>
       <c r="E4" s="4">
-        <v>10511</v>
+        <v>10617</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="3">
-        <v>10520</v>
+        <v>10822</v>
       </c>
       <c r="H4" s="3">
         <v>60</v>
@@ -2933,31 +4046,31 @@
       <c r="I4" s="3">
         <v>22</v>
       </c>
-      <c r="J4" s="3">
-        <v>-532</v>
+      <c r="J4" s="4">
+        <v>10168</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>43019.46197916667</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>43112.385416666664</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D5" s="3">
         <v>1</v>
       </c>
       <c r="E5" s="4">
-        <v>10642</v>
+        <v>10878</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G5" s="3">
-        <v>10609</v>
+        <v>10831</v>
       </c>
       <c r="H5" s="3">
         <v>60</v>
@@ -2966,318 +4079,318 @@
         <v>22</v>
       </c>
       <c r="J5" s="4">
-        <v>-1732</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>43021.470879629633</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>43112.505555555559</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D6" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="4">
-        <v>10683</v>
+        <v>10878.5</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G6" s="3">
-        <v>10686</v>
+        <v>10886</v>
       </c>
       <c r="H6" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I6" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J6" s="3">
-        <v>-232</v>
+        <v>586</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>43021.375</v>
+        <v>43118.560289351852</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="4">
-        <v>10663</v>
+        <v>11065</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G7" s="3">
-        <v>10683</v>
+        <v>11083</v>
       </c>
       <c r="H7" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I7" s="3">
-        <v>22</v>
-      </c>
-      <c r="J7" s="3">
-        <v>918</v>
+        <v>44</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1636</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>43024.551400462966</v>
+        <v>43119.500694444447</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4">
-        <v>10755</v>
+        <v>11115</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G8" s="3">
-        <v>10758</v>
+        <v>11114</v>
       </c>
       <c r="H8" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I8" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J8" s="3">
-        <v>68</v>
+        <v>-264</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>43025.466747685183</v>
+        <v>43123.416666666664</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4">
-        <v>10751</v>
+        <v>11219</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G9" s="3">
-        <v>10748</v>
+        <v>11250</v>
       </c>
       <c r="H9" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I9" s="3">
-        <v>22</v>
-      </c>
-      <c r="J9" s="3">
-        <v>68</v>
+        <v>44</v>
+      </c>
+      <c r="J9" s="4">
+        <v>-3264</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>43026.582430555558</v>
+        <v>43123.537499999999</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D10" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E10" s="4">
-        <v>10746</v>
+        <v>11239</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="3">
-        <v>10728</v>
+        <v>11230</v>
       </c>
       <c r="H10" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I10" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J10" s="3">
-        <v>818</v>
+        <v>736</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>43026.400671296295</v>
+        <v>43125.518055555556</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="4">
-        <v>10449</v>
+        <v>11157</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G11" s="3">
-        <v>10732</v>
+        <v>11170</v>
       </c>
       <c r="H11" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I11" s="3">
-        <v>21</v>
+        <v>44</v>
       </c>
       <c r="J11" s="4">
-        <v>14069</v>
+        <v>1136</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>43027.49596064815</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
+        <v>43126.459722222222</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4">
-        <v>10770</v>
+        <v>11130</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G12" s="3">
-        <v>10777</v>
+        <v>11136</v>
       </c>
       <c r="H12" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I12" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J12" s="3">
-        <v>268</v>
+        <v>-764</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>43031.424305555556</v>
+        <v>43129.462500000001</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D13" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="4">
-        <v>10777</v>
+        <v>11204</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G13" s="3">
-        <v>10738</v>
+        <v>11182</v>
       </c>
       <c r="H13" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I13" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J13" s="4">
-        <v>-2032</v>
+        <v>-2364</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>43032.513020833336</v>
+        <v>43130.446643518517</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D14" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
-        <v>10741</v>
+        <v>11183</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G14" s="3">
-        <v>10743</v>
+        <v>11172</v>
       </c>
       <c r="H14" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I14" s="3">
-        <v>22</v>
-      </c>
-      <c r="J14" s="3">
-        <v>18</v>
+        <v>44</v>
+      </c>
+      <c r="J14" s="4">
+        <v>-1264</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>43033.514016203706</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>10</v>
+        <v>43131.469895833332</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D15" s="3">
         <v>1</v>
       </c>
       <c r="E15" s="4">
-        <v>10773</v>
+        <v>11171</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G15" s="3">
-        <v>10741</v>
+        <v>11100</v>
       </c>
       <c r="H15" s="3">
         <v>60</v>
@@ -3286,30 +4399,30 @@
         <v>22</v>
       </c>
       <c r="J15" s="4">
-        <v>-1682</v>
+        <v>3468</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>43039.564583333333</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>10</v>
+        <v>43131.469895833332</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" s="3">
         <v>1</v>
       </c>
       <c r="E16" s="4">
-        <v>10766</v>
+        <v>11171</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G16" s="3">
-        <v>10779</v>
+        <v>11100</v>
       </c>
       <c r="H16" s="3">
         <v>60</v>
@@ -3317,63 +4430,63 @@
       <c r="I16" s="3">
         <v>22</v>
       </c>
-      <c r="J16" s="3">
-        <v>568</v>
+      <c r="J16" s="4">
+        <v>3468</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>43042.454861111109</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>13</v>
+        <v>43132.486840277779</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
-        <v>10765</v>
+        <v>11169</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G17" s="3">
-        <v>10771</v>
+        <v>11175</v>
       </c>
       <c r="H17" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I17" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J17" s="3">
-        <v>-382</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
-        <v>43042.406261574077</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>10</v>
+        <v>43132.406678240739</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D18" s="3">
         <v>1</v>
       </c>
       <c r="E18" s="4">
-        <v>10805</v>
+        <v>11107</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G18" s="3">
-        <v>10744</v>
+        <v>11174</v>
       </c>
       <c r="H18" s="3">
         <v>60</v>
@@ -3382,30 +4495,30 @@
         <v>22</v>
       </c>
       <c r="J18" s="4">
-        <v>-3132</v>
+        <v>-3432</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
-        <v>43046.464606481481</v>
+        <v>43133.375023148146</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D19" s="3">
         <v>1</v>
       </c>
       <c r="E19" s="4">
-        <v>10791</v>
+        <v>11170</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G19" s="3">
-        <v>10792</v>
+        <v>11089</v>
       </c>
       <c r="H19" s="3">
         <v>60</v>
@@ -3413,191 +4526,191 @@
       <c r="I19" s="3">
         <v>22</v>
       </c>
-      <c r="J19" s="3">
-        <v>-32</v>
+      <c r="J19" s="4">
+        <v>-4132</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
-        <v>43048.492395833331</v>
+        <v>43136.462083333332</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="4">
-        <v>10799</v>
+        <v>10875</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="3">
-        <v>10809</v>
+        <v>10891</v>
       </c>
       <c r="H20" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I20" s="3">
-        <v>22</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-582</v>
+        <v>44</v>
+      </c>
+      <c r="J20" s="4">
+        <v>-1764</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
-        <v>43053.542361111111</v>
+        <v>43136.548425925925</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D21" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="4">
-        <v>10690</v>
+        <v>10930.5</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G21" s="3">
-        <v>10677</v>
+        <v>10947</v>
       </c>
       <c r="H21" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I21" s="3">
-        <v>22</v>
-      </c>
-      <c r="J21" s="3">
-        <v>568</v>
+        <v>44</v>
+      </c>
+      <c r="J21" s="4">
+        <v>-1814</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
-        <v>43056.448946759258</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>13</v>
+        <v>43136.445694444446</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E22" s="4">
-        <v>10646</v>
+        <v>10892.5</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G22" s="3">
-        <v>10689</v>
+        <v>10878</v>
       </c>
       <c r="H22" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I22" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J22" s="4">
-        <v>-2232</v>
+        <v>-1614</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
-        <v>43060.375</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>43137.407256944447</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D23" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E23" s="4">
-        <v>10684</v>
+        <v>10615.5</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G23" s="3">
-        <v>10697</v>
+        <v>10544</v>
       </c>
       <c r="H23" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I23" s="3">
-        <v>22</v>
-      </c>
-      <c r="J23" s="3">
-        <v>-732</v>
+        <v>44</v>
+      </c>
+      <c r="J23" s="4">
+        <v>-7314</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
-        <v>43066.385416666664</v>
+        <v>43138.023946759262</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D24" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="4">
-        <v>10695</v>
+        <v>10315</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G24" s="3">
-        <v>10816</v>
+        <v>10496</v>
       </c>
       <c r="H24" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I24" s="3">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="J24" s="4">
-        <v>5968</v>
+        <v>17940</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
-        <v>43066.448171296295</v>
+        <v>43138.101782407408</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D25" s="3">
         <v>1</v>
       </c>
       <c r="E25" s="4">
-        <v>10745</v>
+        <v>10536</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G25" s="3">
-        <v>10758</v>
+        <v>10541</v>
       </c>
       <c r="H25" s="3">
         <v>60</v>
@@ -3606,30 +4719,30 @@
         <v>22</v>
       </c>
       <c r="J25" s="3">
-        <v>568</v>
+        <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
-        <v>43068.443749999999</v>
+        <v>43138.101782407408</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D26" s="3">
         <v>1</v>
       </c>
       <c r="E26" s="4">
-        <v>10762</v>
+        <v>10536</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G26" s="3">
-        <v>10732</v>
+        <v>10540</v>
       </c>
       <c r="H26" s="3">
         <v>60</v>
@@ -3637,552 +4750,392 @@
       <c r="I26" s="3">
         <v>22</v>
       </c>
-      <c r="J26" s="4">
-        <v>-1582</v>
+      <c r="J26" s="3">
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
-        <v>43070.510416666664</v>
+        <v>43138.836238425924</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D27" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="4">
-        <v>10625</v>
+        <v>10563</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G27" s="3">
-        <v>10609</v>
+        <v>10559</v>
       </c>
       <c r="H27" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I27" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J27" s="3">
-        <v>718</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
-        <v>43070.531273148146</v>
+        <v>43138.985775462963</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="4">
-        <v>10600</v>
+        <v>10556</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G28" s="3">
-        <v>10629</v>
+        <v>10593</v>
       </c>
       <c r="H28" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I28" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J28" s="4">
-        <v>-1532</v>
+        <v>-3864</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
-        <v>43075.370162037034</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>10</v>
+        <v>43139.370937500003</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>13</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D29" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="4">
-        <v>10573</v>
+        <v>10594</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G29" s="3">
-        <v>10548</v>
+        <v>10544</v>
       </c>
       <c r="H29" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I29" s="3">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="J29" s="4">
-        <v>-1332</v>
+        <v>4836</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
-        <v>43074.946053240739</v>
+        <v>43139.444988425923</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D30" s="3">
         <v>1</v>
       </c>
       <c r="E30" s="4">
-        <v>10551</v>
+        <v>10493</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G30" s="3">
-        <v>10558</v>
+        <v>10524</v>
       </c>
       <c r="H30" s="3">
         <v>60</v>
       </c>
       <c r="I30" s="3">
-        <v>22</v>
-      </c>
-      <c r="J30" s="3">
-        <v>-432</v>
+        <v>21</v>
+      </c>
+      <c r="J30" s="4">
+        <v>-1631</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
-        <v>43076.5625</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>13</v>
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D31" s="3">
         <v>1</v>
       </c>
       <c r="E31" s="4">
-        <v>10512</v>
+        <v>10530</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G31" s="3">
-        <v>10370</v>
+        <v>10513</v>
       </c>
       <c r="H31" s="3">
         <v>60</v>
       </c>
       <c r="I31" s="3">
-        <v>21</v>
-      </c>
-      <c r="J31" s="4">
-        <v>7019</v>
+        <v>22</v>
+      </c>
+      <c r="J31" s="3">
+        <v>-932</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43080.532638888886</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>10472</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3">
-        <v>10483</v>
-      </c>
-      <c r="H32" s="3">
-        <v>60</v>
-      </c>
-      <c r="I32" s="3">
-        <v>20</v>
-      </c>
-      <c r="J32" s="3">
-        <v>470</v>
+      <c r="A32" s="7">
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="8">
+        <v>1</v>
+      </c>
+      <c r="E32" s="9">
+        <v>10530</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="8">
+        <v>10513</v>
+      </c>
+      <c r="H32" s="8">
+        <v>32</v>
+      </c>
+      <c r="I32" s="8">
+        <v>22</v>
+      </c>
+      <c r="J32" s="9">
+        <v>1398</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43081.447962962964</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>10346</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10429</v>
-      </c>
-      <c r="H33" s="3">
-        <v>60</v>
-      </c>
-      <c r="I33" s="3">
-        <v>20</v>
-      </c>
-      <c r="J33" s="4">
-        <v>4070</v>
+      <c r="A33" s="7">
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="8">
+        <v>1</v>
+      </c>
+      <c r="E33" s="9">
+        <v>10530</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="8">
+        <v>10513</v>
+      </c>
+      <c r="H33" s="8">
+        <v>32</v>
+      </c>
+      <c r="I33" s="8">
+        <v>22</v>
+      </c>
+      <c r="J33" s="9">
+        <v>-652</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43082.481944444444</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10448</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3">
-        <v>10451</v>
-      </c>
-      <c r="H34" s="3">
-        <v>60</v>
-      </c>
-      <c r="I34" s="3">
-        <v>20</v>
-      </c>
-      <c r="J34" s="3">
-        <v>70</v>
+      <c r="A34" s="7">
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1</v>
+      </c>
+      <c r="E34" s="9">
+        <v>10530</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="8">
+        <v>10513</v>
+      </c>
+      <c r="H34" s="8">
+        <v>32</v>
+      </c>
+      <c r="I34" s="8">
+        <v>22</v>
+      </c>
+      <c r="J34" s="9">
+        <v>1298</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43084.447951388887</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>10430</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3">
-        <v>10429</v>
-      </c>
-      <c r="H35" s="3">
-        <v>60</v>
-      </c>
-      <c r="I35" s="3">
-        <v>20</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-130</v>
+      <c r="A35" s="7">
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B35" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="8">
+        <v>1</v>
+      </c>
+      <c r="E35" s="9">
+        <v>10530</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="8">
+        <v>10513</v>
+      </c>
+      <c r="H35" s="8">
+        <v>32</v>
+      </c>
+      <c r="I35" s="8">
+        <v>22</v>
+      </c>
+      <c r="J35" s="9">
+        <v>-1502</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43087.417372685188</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>10460</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3">
-        <v>10499</v>
-      </c>
-      <c r="H36" s="3">
-        <v>60</v>
-      </c>
-      <c r="I36" s="3">
-        <v>20</v>
-      </c>
-      <c r="J36" s="4">
-        <v>-2030</v>
+      <c r="A36" s="7">
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1</v>
+      </c>
+      <c r="E36" s="9">
+        <v>10530</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="8">
+        <v>10513</v>
+      </c>
+      <c r="H36" s="8">
+        <v>32</v>
+      </c>
+      <c r="I36" s="8">
+        <v>22</v>
+      </c>
+      <c r="J36" s="9">
+        <v>2148</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
-        <v>43088.531261574077</v>
+        <v>43143.541666666664</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="4">
-        <v>10476</v>
+        <v>10227</v>
       </c>
       <c r="F37" s="3" t="s">
         <v>12</v>
       </c>
       <c r="G37" s="3">
-        <v>10449</v>
+        <v>10408</v>
       </c>
       <c r="H37" s="3">
-        <v>60</v>
+        <v>120</v>
       </c>
       <c r="I37" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J37" s="4">
-        <v>-1430</v>
+        <v>17940</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
-        <v>43089.399074074077</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="3">
-        <v>1</v>
-      </c>
-      <c r="E38" s="4">
-        <v>10505</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3">
-        <v>10494</v>
-      </c>
-      <c r="H38" s="3">
-        <v>60</v>
-      </c>
-      <c r="I38" s="3">
-        <v>21</v>
-      </c>
-      <c r="J38" s="3">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
-        <v>43089.411168981482</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="3">
-        <v>1</v>
-      </c>
-      <c r="E39" s="4">
-        <v>10498</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G39" s="3">
-        <v>10487</v>
-      </c>
-      <c r="H39" s="3">
-        <v>60</v>
-      </c>
-      <c r="I39" s="3">
-        <v>20</v>
-      </c>
-      <c r="J39" s="3">
-        <v>-630</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
-        <v>43090.47152777778</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="3">
-        <v>3</v>
-      </c>
-      <c r="E40" s="4">
-        <v>10504</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G40" s="3">
-        <v>10507</v>
-      </c>
-      <c r="H40" s="3">
-        <v>180</v>
-      </c>
-      <c r="I40" s="3">
-        <v>65</v>
-      </c>
-      <c r="J40" s="3">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
-        <v>43091.406712962962</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D41" s="3">
-        <v>1</v>
-      </c>
-      <c r="E41" s="4">
-        <v>10514</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G41" s="3">
-        <v>10473</v>
-      </c>
-      <c r="H41" s="3">
-        <v>60</v>
-      </c>
-      <c r="I41" s="3">
-        <v>21</v>
-      </c>
-      <c r="J41" s="4">
-        <v>-2131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
-        <v>43095.447974537034</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="3">
-        <v>1</v>
-      </c>
-      <c r="E42" s="4">
-        <v>10515</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G42" s="3">
-        <v>10426</v>
-      </c>
-      <c r="H42" s="3">
-        <v>60</v>
-      </c>
-      <c r="I42" s="3">
-        <v>21</v>
-      </c>
-      <c r="J42" s="4">
-        <v>-4481</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
-        <v>43096.959317129629</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D43" s="3">
-        <v>2</v>
-      </c>
-      <c r="E43" s="4">
-        <v>10498</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G43" s="3">
-        <v>10487</v>
-      </c>
-      <c r="H43" s="3">
-        <v>120</v>
-      </c>
-      <c r="I43" s="3">
-        <v>40</v>
-      </c>
-      <c r="J43" s="3">
-        <v>940</v>
+      <c r="A38" s="7">
+        <v>43139.627349537041</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1</v>
+      </c>
+      <c r="E38" s="9">
+        <v>10530</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="8">
+        <v>10513</v>
+      </c>
+      <c r="H38" s="8">
+        <v>32</v>
+      </c>
+      <c r="I38" s="8">
+        <v>22</v>
+      </c>
+      <c r="J38" s="9">
+        <v>7150</v>
       </c>
     </row>
   </sheetData>
@@ -4192,1314 +5145,1393 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:V20"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A1" s="1">
-        <v>42948.36891203704</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="3" t="s">
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43010.571527777778</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="4">
+        <v>10424</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3">
+        <v>10449</v>
+      </c>
+      <c r="H2" s="3">
+        <v>60</v>
+      </c>
+      <c r="I2" s="3">
+        <v>20</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>43011.524305555555</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="4">
+        <v>10428</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="3">
+        <v>10464</v>
+      </c>
+      <c r="H3" s="3">
+        <v>60</v>
+      </c>
+      <c r="I3" s="3">
+        <v>20</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-1880</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>43014.47016203704</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>10511</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="3">
+        <v>10520</v>
+      </c>
+      <c r="H4" s="3">
+        <v>60</v>
+      </c>
+      <c r="I4" s="3">
+        <v>22</v>
+      </c>
+      <c r="J4" s="3">
+        <v>-532</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>43019.46197916667</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>10642</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="3">
+        <v>10609</v>
+      </c>
+      <c r="H5" s="3">
+        <v>60</v>
+      </c>
+      <c r="I5" s="3">
+        <v>22</v>
+      </c>
+      <c r="J5" s="4">
+        <v>-1732</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>43021.470879629633</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>10683</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="3">
+        <v>10686</v>
+      </c>
+      <c r="H6" s="3">
+        <v>60</v>
+      </c>
+      <c r="I6" s="3">
+        <v>22</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-232</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>43021.375</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="4">
+        <v>10663</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10683</v>
+      </c>
+      <c r="H7" s="3">
+        <v>60</v>
+      </c>
+      <c r="I7" s="3">
+        <v>22</v>
+      </c>
+      <c r="J7" s="3">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>43024.551400462966</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4">
+        <v>10755</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="3">
+        <v>10758</v>
+      </c>
+      <c r="H8" s="3">
+        <v>60</v>
+      </c>
+      <c r="I8" s="3">
+        <v>22</v>
+      </c>
+      <c r="J8" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>43025.466747685183</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10751</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="3">
+        <v>10748</v>
+      </c>
+      <c r="H9" s="3">
+        <v>60</v>
+      </c>
+      <c r="I9" s="3">
+        <v>22</v>
+      </c>
+      <c r="J9" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>43026.582430555558</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4">
+        <v>10746</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3">
+        <v>10728</v>
+      </c>
+      <c r="H10" s="3">
+        <v>60</v>
+      </c>
+      <c r="I10" s="3">
+        <v>22</v>
+      </c>
+      <c r="J10" s="3">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>43026.400671296295</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>10449</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3">
+        <v>10732</v>
+      </c>
+      <c r="H11" s="3">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3">
+        <v>21</v>
+      </c>
+      <c r="J11" s="4">
+        <v>14069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>43027.49596064815</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="4">
+        <v>10770</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="3">
+        <v>10777</v>
+      </c>
+      <c r="H12" s="3">
+        <v>60</v>
+      </c>
+      <c r="I12" s="3">
+        <v>22</v>
+      </c>
+      <c r="J12" s="3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>43031.424305555556</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="3">
+        <v>1</v>
+      </c>
+      <c r="E13" s="4">
+        <v>10777</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="3">
+        <v>10738</v>
+      </c>
+      <c r="H13" s="3">
+        <v>60</v>
+      </c>
+      <c r="I13" s="3">
+        <v>22</v>
+      </c>
+      <c r="J13" s="4">
+        <v>-2032</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>43032.513020833336</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="4">
+        <v>10741</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="3">
+        <v>10743</v>
+      </c>
+      <c r="H14" s="3">
+        <v>60</v>
+      </c>
+      <c r="I14" s="3">
+        <v>22</v>
+      </c>
+      <c r="J14" s="3">
         <v>18</v>
       </c>
-      <c r="D1" s="3">
-        <v>4</v>
-      </c>
-      <c r="E1" s="4">
-        <v>10375.25</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" s="3">
-        <v>10387</v>
-      </c>
-      <c r="H1" s="3">
-        <v>240</v>
-      </c>
-      <c r="I1" s="3">
-        <v>80</v>
-      </c>
-      <c r="J1" s="4">
-        <v>-2670</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>42956.464618055557</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="3">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>10437</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" s="3">
-        <v>10447</v>
-      </c>
-      <c r="H2" s="3">
-        <v>420</v>
-      </c>
-      <c r="I2" s="3">
-        <v>142</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2938</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>42956.999965277777</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="3">
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>43033.514016203706</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="4">
+        <v>10773</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="3">
+        <v>10741</v>
+      </c>
+      <c r="H15" s="3">
+        <v>60</v>
+      </c>
+      <c r="I15" s="3">
+        <v>22</v>
+      </c>
+      <c r="J15" s="4">
+        <v>-1682</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>43039.564583333333</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10766</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="3">
+        <v>10779</v>
+      </c>
+      <c r="H16" s="3">
+        <v>60</v>
+      </c>
+      <c r="I16" s="3">
+        <v>22</v>
+      </c>
+      <c r="J16" s="3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>43042.454861111109</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>10765</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="3">
+        <v>10771</v>
+      </c>
+      <c r="H17" s="3">
+        <v>60</v>
+      </c>
+      <c r="I17" s="3">
+        <v>22</v>
+      </c>
+      <c r="J17" s="3">
+        <v>-382</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>43042.406261574077</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>10805</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3">
+        <v>10744</v>
+      </c>
+      <c r="H18" s="3">
+        <v>60</v>
+      </c>
+      <c r="I18" s="3">
+        <v>22</v>
+      </c>
+      <c r="J18" s="4">
+        <v>-3132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>43046.464606481481</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4">
+        <v>10791</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="3">
+        <v>10792</v>
+      </c>
+      <c r="H19" s="3">
+        <v>60</v>
+      </c>
+      <c r="I19" s="3">
+        <v>22</v>
+      </c>
+      <c r="J19" s="3">
+        <v>-32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>43048.492395833331</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="3">
+        <v>1</v>
+      </c>
+      <c r="E20" s="4">
+        <v>10799</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3">
+        <v>10809</v>
+      </c>
+      <c r="H20" s="3">
+        <v>60</v>
+      </c>
+      <c r="I20" s="3">
+        <v>22</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-582</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>43053.542361111111</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>10690</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="3">
+        <v>10677</v>
+      </c>
+      <c r="H21" s="3">
+        <v>60</v>
+      </c>
+      <c r="I21" s="3">
+        <v>22</v>
+      </c>
+      <c r="J21" s="3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>43056.448946759258</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>10646</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="3">
+        <v>10689</v>
+      </c>
+      <c r="H22" s="3">
+        <v>60</v>
+      </c>
+      <c r="I22" s="3">
+        <v>22</v>
+      </c>
+      <c r="J22" s="4">
+        <v>-2232</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>43060.375</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>10684</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="3">
+        <v>10697</v>
+      </c>
+      <c r="H23" s="3">
+        <v>60</v>
+      </c>
+      <c r="I23" s="3">
+        <v>22</v>
+      </c>
+      <c r="J23" s="3">
+        <v>-732</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>43066.385416666664</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="3">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>10695</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="3">
+        <v>10816</v>
+      </c>
+      <c r="H24" s="3">
+        <v>60</v>
+      </c>
+      <c r="I24" s="3">
+        <v>22</v>
+      </c>
+      <c r="J24" s="4">
+        <v>5968</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>43066.448171296295</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="3">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>10745</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="3">
+        <v>10758</v>
+      </c>
+      <c r="H25" s="3">
+        <v>60</v>
+      </c>
+      <c r="I25" s="3">
+        <v>22</v>
+      </c>
+      <c r="J25" s="3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>43068.443749999999</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26" s="3">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>10762</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="3">
+        <v>10732</v>
+      </c>
+      <c r="H26" s="3">
+        <v>60</v>
+      </c>
+      <c r="I26" s="3">
+        <v>22</v>
+      </c>
+      <c r="J26" s="4">
+        <v>-1582</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>43070.510416666664</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="3">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10625</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="3">
+        <v>10609</v>
+      </c>
+      <c r="H27" s="3">
+        <v>60</v>
+      </c>
+      <c r="I27" s="3">
+        <v>22</v>
+      </c>
+      <c r="J27" s="3">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>43070.531273148146</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="3">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10600</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="3">
+        <v>10629</v>
+      </c>
+      <c r="H28" s="3">
+        <v>60</v>
+      </c>
+      <c r="I28" s="3">
+        <v>22</v>
+      </c>
+      <c r="J28" s="4">
+        <v>-1532</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>43075.370162037034</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="3">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10573</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3">
+        <v>10548</v>
+      </c>
+      <c r="H29" s="3">
+        <v>60</v>
+      </c>
+      <c r="I29" s="3">
+        <v>22</v>
+      </c>
+      <c r="J29" s="4">
+        <v>-1332</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>43074.946053240739</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="3">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10551</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="3">
+        <v>10558</v>
+      </c>
+      <c r="H30" s="3">
+        <v>60</v>
+      </c>
+      <c r="I30" s="3">
+        <v>22</v>
+      </c>
+      <c r="J30" s="3">
+        <v>-432</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>43076.5625</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="3">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>10512</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="3">
+        <v>10370</v>
+      </c>
+      <c r="H31" s="3">
+        <v>60</v>
+      </c>
+      <c r="I31" s="3">
+        <v>21</v>
+      </c>
+      <c r="J31" s="4">
+        <v>7019</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>43080.532638888886</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="3">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>10472</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="3">
+        <v>10483</v>
+      </c>
+      <c r="H32" s="3">
+        <v>60</v>
+      </c>
+      <c r="I32" s="3">
+        <v>20</v>
+      </c>
+      <c r="J32" s="3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>43081.447962962964</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="3">
+        <v>1</v>
+      </c>
+      <c r="E33" s="4">
+        <v>10346</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="3">
+        <v>10429</v>
+      </c>
+      <c r="H33" s="3">
+        <v>60</v>
+      </c>
+      <c r="I33" s="3">
+        <v>20</v>
+      </c>
+      <c r="J33" s="4">
+        <v>4070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>43082.481944444444</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="3">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>10448</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="3">
+        <v>10451</v>
+      </c>
+      <c r="H34" s="3">
+        <v>60</v>
+      </c>
+      <c r="I34" s="3">
+        <v>20</v>
+      </c>
+      <c r="J34" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>43084.447951388887</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="3">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>10430</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="3">
+        <v>10429</v>
+      </c>
+      <c r="H35" s="3">
+        <v>60</v>
+      </c>
+      <c r="I35" s="3">
+        <v>20</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>43087.417372685188</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="3">
+        <v>1</v>
+      </c>
+      <c r="E36" s="4">
+        <v>10460</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="3">
+        <v>10499</v>
+      </c>
+      <c r="H36" s="3">
+        <v>60</v>
+      </c>
+      <c r="I36" s="3">
+        <v>20</v>
+      </c>
+      <c r="J36" s="4">
+        <v>-2030</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>43088.531261574077</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="3">
+        <v>1</v>
+      </c>
+      <c r="E37" s="4">
+        <v>10476</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="3">
+        <v>10449</v>
+      </c>
+      <c r="H37" s="3">
+        <v>60</v>
+      </c>
+      <c r="I37" s="3">
+        <v>20</v>
+      </c>
+      <c r="J37" s="4">
+        <v>-1430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>43089.399074074077</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" s="3">
+        <v>1</v>
+      </c>
+      <c r="E38" s="4">
+        <v>10505</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3">
+        <v>10494</v>
+      </c>
+      <c r="H38" s="3">
+        <v>60</v>
+      </c>
+      <c r="I38" s="3">
+        <v>21</v>
+      </c>
+      <c r="J38" s="3">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>43089.411168981482</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D39" s="3">
+        <v>1</v>
+      </c>
+      <c r="E39" s="4">
+        <v>10498</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="3">
+        <v>10487</v>
+      </c>
+      <c r="H39" s="3">
+        <v>60</v>
+      </c>
+      <c r="I39" s="3">
+        <v>20</v>
+      </c>
+      <c r="J39" s="3">
+        <v>-630</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>43090.47152777778</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="3">
+        <v>3</v>
+      </c>
+      <c r="E40" s="4">
+        <v>10504</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="3">
+        <v>10507</v>
+      </c>
+      <c r="H40" s="3">
+        <v>180</v>
+      </c>
+      <c r="I40" s="3">
+        <v>65</v>
+      </c>
+      <c r="J40" s="3">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>43091.406712962962</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41" s="3">
+        <v>1</v>
+      </c>
+      <c r="E41" s="4">
+        <v>10514</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="3">
+        <v>10473</v>
+      </c>
+      <c r="H41" s="3">
+        <v>60</v>
+      </c>
+      <c r="I41" s="3">
+        <v>21</v>
+      </c>
+      <c r="J41" s="4">
+        <v>-2131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>43095.447974537034</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="3">
+        <v>1</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10515</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="3">
+        <v>10426</v>
+      </c>
+      <c r="H42" s="3">
+        <v>60</v>
+      </c>
+      <c r="I42" s="3">
+        <v>21</v>
+      </c>
+      <c r="J42" s="4">
+        <v>-4481</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>43096.959317129629</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="3">
         <v>2</v>
       </c>
-      <c r="E3" s="4">
-        <v>10448</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G3" s="3">
-        <v>10440</v>
-      </c>
-      <c r="H3" s="3">
+      <c r="E43" s="4">
+        <v>10498</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="3">
+        <v>10487</v>
+      </c>
+      <c r="H43" s="3">
         <v>120</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I43" s="3">
         <v>40</v>
       </c>
-      <c r="J3" s="3">
-        <v>640</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>42957.379583333335</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="3">
-        <v>4</v>
-      </c>
-      <c r="E4" s="4">
-        <v>10479</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G4" s="3">
-        <v>10451</v>
-      </c>
-      <c r="H4" s="3">
-        <v>240</v>
-      </c>
-      <c r="I4" s="3">
-        <v>80</v>
-      </c>
-      <c r="J4" s="4">
-        <v>-5920</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
-        <v>42957.459108796298</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="3">
-        <v>4</v>
-      </c>
-      <c r="E5" s="4">
-        <v>10368</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G5" s="3">
-        <v>10327</v>
-      </c>
-      <c r="H5" s="3">
-        <v>240</v>
-      </c>
-      <c r="I5" s="3">
-        <v>80</v>
-      </c>
-      <c r="J5" s="4">
-        <v>-8520</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
-        <v>42961.398009259261</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>10263</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="3">
-        <v>10270</v>
-      </c>
-      <c r="H6" s="3">
-        <v>60</v>
-      </c>
-      <c r="I6" s="3">
-        <v>20</v>
-      </c>
-      <c r="J6" s="3">
-        <v>270</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
-        <v>42962.417997685188</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4</v>
-      </c>
-      <c r="E7" s="4">
-        <v>10312</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10272</v>
-      </c>
-      <c r="H7" s="3">
-        <v>240</v>
-      </c>
-      <c r="I7" s="3">
-        <v>80</v>
-      </c>
-      <c r="J7" s="4">
-        <v>-8320</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
-        <v>42965.453958333332</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="3">
-        <v>3</v>
-      </c>
-      <c r="E8" s="4">
-        <v>10212</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G8" s="3">
-        <v>10253</v>
-      </c>
-      <c r="H8" s="3">
-        <v>180</v>
-      </c>
-      <c r="I8" s="3">
-        <v>60</v>
-      </c>
-      <c r="J8" s="4">
-        <v>-6390</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
-        <v>42965.38417824074</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="3">
-        <v>4</v>
-      </c>
-      <c r="E9" s="4">
-        <v>10269</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G9" s="3">
-        <v>10229</v>
-      </c>
-      <c r="H9" s="3">
-        <v>240</v>
-      </c>
-      <c r="I9" s="3">
-        <v>80</v>
-      </c>
-      <c r="J9" s="4">
-        <v>-8320</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
-        <v>42968.430069444446</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="3">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4">
-        <v>10222</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="3">
-        <v>10261</v>
-      </c>
-      <c r="H10" s="3">
-        <v>120</v>
-      </c>
-      <c r="I10" s="3">
-        <v>40</v>
-      </c>
-      <c r="J10" s="4">
-        <v>-4060</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
-        <v>42968.430069444446</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="3">
-        <v>1</v>
-      </c>
-      <c r="E11" s="4">
-        <v>10222</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3">
-        <v>10262</v>
-      </c>
-      <c r="H11" s="3">
-        <v>60</v>
-      </c>
-      <c r="I11" s="3">
-        <v>20</v>
-      </c>
-      <c r="J11" s="4">
-        <v>-2080</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
-        <v>42969.561481481483</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D12" s="3">
-        <v>3</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10360</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="3">
-        <v>10352</v>
-      </c>
-      <c r="H12" s="3">
-        <v>180</v>
-      </c>
-      <c r="I12" s="3">
-        <v>60</v>
-      </c>
-      <c r="J12" s="4">
-        <v>-1440</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
-        <v>42970.488171296296</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="3">
-        <v>3</v>
-      </c>
-      <c r="E13" s="4">
-        <v>10390</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="3">
-        <v>10377</v>
-      </c>
-      <c r="H13" s="3">
-        <v>180</v>
-      </c>
-      <c r="I13" s="3">
-        <v>60</v>
-      </c>
-      <c r="J13" s="4">
-        <v>1710</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
-        <v>42975.364849537036</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="3">
-        <v>3</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10389</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="3">
-        <v>10463</v>
-      </c>
-      <c r="H14" s="3">
-        <v>180</v>
-      </c>
-      <c r="I14" s="3">
-        <v>60</v>
-      </c>
-      <c r="J14" s="4">
-        <v>10860</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
-        <v>42978.401493055557</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="3">
-        <v>3</v>
-      </c>
-      <c r="E15" s="4">
-        <v>10548</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="3">
-        <v>10563</v>
-      </c>
-      <c r="H15" s="3">
-        <v>180</v>
-      </c>
-      <c r="I15" s="3">
-        <v>66</v>
-      </c>
-      <c r="J15" s="4">
-        <v>-2496</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
-        <v>42978.545173611114</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="3">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4">
-        <v>10549</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G16" s="3">
-        <v>10546</v>
-      </c>
-      <c r="H16" s="3">
-        <v>180</v>
-      </c>
-      <c r="I16" s="3">
-        <v>66</v>
-      </c>
-      <c r="J16" s="3">
-        <v>204</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
-        <v>42978.412106481483</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D17" s="3">
-        <v>3</v>
-      </c>
-      <c r="E17" s="4">
-        <v>10563</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3">
-        <v>10547</v>
-      </c>
-      <c r="H17" s="3">
-        <v>180</v>
-      </c>
-      <c r="I17" s="3">
-        <v>66</v>
-      </c>
-      <c r="J17" s="4">
-        <v>-2646</v>
-      </c>
-      <c r="K17" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
-        <v>42979.399456018517</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="3">
-        <v>3</v>
-      </c>
-      <c r="E18" s="4">
-        <v>10551</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3">
-        <v>10575</v>
-      </c>
-      <c r="H18" s="3">
-        <v>180</v>
-      </c>
-      <c r="I18" s="3">
-        <v>66</v>
-      </c>
-      <c r="J18" s="4">
-        <v>-3846</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
-        <v>42983.508715277778</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="3">
-        <v>3</v>
-      </c>
-      <c r="E19" s="4">
-        <v>10545</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
-        <v>10559</v>
-      </c>
-      <c r="H19" s="3">
-        <v>180</v>
-      </c>
-      <c r="I19" s="3">
-        <v>66</v>
-      </c>
-      <c r="J19" s="4">
-        <v>-2346</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
-        <v>42984.418761574074</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3</v>
-      </c>
-      <c r="E20" s="4">
-        <v>10561</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3">
-        <v>10558</v>
-      </c>
-      <c r="H20" s="3">
-        <v>180</v>
-      </c>
-      <c r="I20" s="3">
-        <v>66</v>
-      </c>
-      <c r="J20" s="3">
-        <v>204</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
-        <v>42984.53197916667</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D21" s="3">
-        <v>3</v>
-      </c>
-      <c r="E21" s="4">
-        <v>10509</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3">
-        <v>10527</v>
-      </c>
-      <c r="H21" s="3">
-        <v>180</v>
-      </c>
-      <c r="I21" s="3">
-        <v>66</v>
-      </c>
-      <c r="J21" s="4">
-        <v>-2946</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
-        <v>42985.467372685183</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D22" s="3">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>10564</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3">
-        <v>10538</v>
-      </c>
-      <c r="H22" s="3">
-        <v>60</v>
-      </c>
-      <c r="I22" s="3">
-        <v>22</v>
-      </c>
-      <c r="J22" s="4">
-        <v>-1382</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>42985.943402777775</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
-        <v>10491</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3">
-        <v>10502</v>
-      </c>
-      <c r="H23" s="3">
-        <v>120</v>
-      </c>
-      <c r="I23" s="3">
-        <v>42</v>
-      </c>
-      <c r="J23" s="4">
-        <v>-1262</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>42986.569444444445</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D24" s="3">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>10520</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3">
-        <v>10548</v>
-      </c>
-      <c r="H24" s="3">
-        <v>60</v>
-      </c>
-      <c r="I24" s="3">
-        <v>22</v>
-      </c>
-      <c r="J24" s="4">
-        <v>1318</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
-        <v>42989.506307870368</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
-        <v>10554</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3">
-        <v>10551</v>
-      </c>
-      <c r="H25" s="3">
-        <v>60</v>
-      </c>
-      <c r="I25" s="3">
-        <v>22</v>
-      </c>
-      <c r="J25" s="3">
-        <v>68</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
-        <v>42990.466678240744</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
-        <v>10583</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3">
-        <v>10571</v>
-      </c>
-      <c r="H26" s="3">
-        <v>60</v>
-      </c>
-      <c r="I26" s="3">
-        <v>22</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-682</v>
-      </c>
-      <c r="K26" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>42991.413888888892</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D27" s="3">
-        <v>1</v>
-      </c>
-      <c r="E27" s="4">
-        <v>10595</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3">
-        <v>10553</v>
-      </c>
-      <c r="H27" s="3">
-        <v>60</v>
-      </c>
-      <c r="I27" s="3">
-        <v>22</v>
-      </c>
-      <c r="J27" s="4">
-        <v>-2182</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
-        <v>42992.511828703704</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D28" s="3">
-        <v>1</v>
-      </c>
-      <c r="E28" s="4">
-        <v>10542</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3">
-        <v>10536</v>
-      </c>
-      <c r="H28" s="3">
-        <v>60</v>
-      </c>
-      <c r="I28" s="3">
-        <v>22</v>
-      </c>
-      <c r="J28" s="3">
-        <v>-382</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
-        <v>42993.491759259261</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D29" s="3">
-        <v>1</v>
-      </c>
-      <c r="E29" s="4">
-        <v>10508</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3">
-        <v>10542</v>
-      </c>
-      <c r="H29" s="3">
-        <v>60</v>
-      </c>
-      <c r="I29" s="3">
-        <v>22</v>
-      </c>
-      <c r="J29" s="4">
-        <v>-1782</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
-        <v>42997.437511574077</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
-        <v>10604</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3">
-        <v>10611</v>
-      </c>
-      <c r="H30" s="3">
-        <v>60</v>
-      </c>
-      <c r="I30" s="3">
-        <v>22</v>
-      </c>
-      <c r="J30" s="3">
-        <v>268</v>
-      </c>
-      <c r="K30" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
-        <v>42998.387013888889</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
-        <v>10544</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3">
-        <v>10519</v>
-      </c>
-      <c r="H31" s="3">
-        <v>60</v>
-      </c>
-      <c r="I31" s="3">
-        <v>22</v>
-      </c>
-      <c r="J31" s="4">
-        <v>-1332</v>
-      </c>
-      <c r="K31" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
-        <v>43000.395833333336</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D32" s="3">
-        <v>1</v>
-      </c>
-      <c r="E32" s="4">
-        <v>10520</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="3">
-        <v>10514</v>
-      </c>
-      <c r="H32" s="3">
-        <v>60</v>
-      </c>
-      <c r="I32" s="3">
-        <v>22</v>
-      </c>
-      <c r="J32" s="3">
-        <v>-382</v>
-      </c>
-      <c r="K32" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
-        <v>43004.418761574074</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D33" s="3">
-        <v>1</v>
-      </c>
-      <c r="E33" s="4">
-        <v>10353</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="3">
-        <v>10317</v>
-      </c>
-      <c r="H33" s="3">
-        <v>60</v>
-      </c>
-      <c r="I33" s="3">
-        <v>20</v>
-      </c>
-      <c r="J33" s="4">
-        <v>-1880</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
-        <v>43005.46597222222</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D34" s="3">
-        <v>1</v>
-      </c>
-      <c r="E34" s="4">
-        <v>10329</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="3">
-        <v>10327</v>
-      </c>
-      <c r="H34" s="3">
-        <v>60</v>
-      </c>
-      <c r="I34" s="3">
-        <v>20</v>
-      </c>
-      <c r="J34" s="3">
-        <v>-180</v>
-      </c>
-      <c r="K34" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
-        <v>43006.472939814812</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="3">
-        <v>1</v>
-      </c>
-      <c r="E35" s="4">
-        <v>10303</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="3">
-        <v>10299</v>
-      </c>
-      <c r="H35" s="3">
-        <v>60</v>
-      </c>
-      <c r="I35" s="3">
-        <v>20</v>
-      </c>
-      <c r="J35" s="3">
-        <v>120</v>
-      </c>
-      <c r="K35" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
-        <v>43007.469456018516</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D36" s="3">
-        <v>1</v>
-      </c>
-      <c r="E36" s="4">
-        <v>10303</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="3">
-        <v>10298</v>
-      </c>
-      <c r="H36" s="3">
-        <v>60</v>
-      </c>
-      <c r="I36" s="3">
-        <v>20</v>
-      </c>
-      <c r="J36" s="3">
-        <v>170</v>
-      </c>
-      <c r="K36" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43007.531388888892</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D37" s="3">
-        <v>1</v>
-      </c>
-      <c r="E37" s="4">
-        <v>10309</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3">
-        <v>10295</v>
-      </c>
-      <c r="H37" s="3">
-        <v>60</v>
-      </c>
-      <c r="I37" s="3">
-        <v>20</v>
-      </c>
-      <c r="J37" s="3">
-        <v>620</v>
-      </c>
-      <c r="K37" s="3" t="s">
-        <v>19</v>
+      <c r="J43" s="3">
+        <v>940</v>
       </c>
     </row>
   </sheetData>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
-    <sheet name="2018" sheetId="3" r:id="rId2"/>
-    <sheet name="2017" sheetId="2" r:id="rId3"/>
+    <sheet name="manual" sheetId="5" r:id="rId2"/>
+    <sheet name="2018" sheetId="3" r:id="rId3"/>
+    <sheet name="2017" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="22">
   <si>
     <t>成交時間</t>
   </si>
@@ -495,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="F117" sqref="F117"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74:J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3906,6 +3907,952 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H35" sqref="H35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="17.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A2" s="12">
+        <v>43140.627349537041</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="14">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="14">
+        <v>32</v>
+      </c>
+      <c r="I2" s="14">
+        <v>22</v>
+      </c>
+      <c r="J2" s="17">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A3" s="12">
+        <v>43140.627349537041</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="14">
+        <v>1</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="14">
+        <v>32</v>
+      </c>
+      <c r="I3" s="14">
+        <v>22</v>
+      </c>
+      <c r="J3" s="18">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A4" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="14">
+        <v>1</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="14">
+        <v>32</v>
+      </c>
+      <c r="I4" s="14">
+        <v>22</v>
+      </c>
+      <c r="J4" s="10">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A5" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="14">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="14">
+        <v>32</v>
+      </c>
+      <c r="I5" s="14">
+        <v>22</v>
+      </c>
+      <c r="J5" s="10">
+        <v>-1502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A6" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="14">
+        <v>1</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="14">
+        <v>32</v>
+      </c>
+      <c r="I6" s="14">
+        <v>22</v>
+      </c>
+      <c r="J6" s="10">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A7" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="14">
+        <v>1</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G7" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H7" s="14">
+        <v>32</v>
+      </c>
+      <c r="I7" s="14">
+        <v>22</v>
+      </c>
+      <c r="J7" s="10">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A8" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="14">
+        <v>32</v>
+      </c>
+      <c r="I8" s="14">
+        <v>22</v>
+      </c>
+      <c r="J8" s="11">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A9" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="14">
+        <v>32</v>
+      </c>
+      <c r="I9" s="14">
+        <v>22</v>
+      </c>
+      <c r="J9" s="11">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A10" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B10" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="14">
+        <v>32</v>
+      </c>
+      <c r="I10" s="14">
+        <v>22</v>
+      </c>
+      <c r="J10" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A11" s="12">
+        <v>43153.541666666664</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="14">
+        <v>1</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H11" s="14">
+        <v>32</v>
+      </c>
+      <c r="I11" s="14">
+        <v>22</v>
+      </c>
+      <c r="J11" s="10">
+        <v>-1404</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A12" s="12">
+        <v>43157.541666666664</v>
+      </c>
+      <c r="B12" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D12" s="14">
+        <v>1</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H12" s="14">
+        <v>32</v>
+      </c>
+      <c r="I12" s="14">
+        <v>22</v>
+      </c>
+      <c r="J12" s="10">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13" s="12">
+        <v>43158.541666666664</v>
+      </c>
+      <c r="B13" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="14">
+        <v>1</v>
+      </c>
+      <c r="E13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H13" s="14">
+        <v>32</v>
+      </c>
+      <c r="I13" s="14">
+        <v>22</v>
+      </c>
+      <c r="J13" s="11">
+        <v>-754</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B14" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="14">
+        <v>2</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="14">
+        <v>32</v>
+      </c>
+      <c r="I14" s="14">
+        <v>22</v>
+      </c>
+      <c r="J14" s="10">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A15" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B15" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D15" s="14">
+        <v>2</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15" s="14">
+        <v>32</v>
+      </c>
+      <c r="I15" s="14">
+        <v>22</v>
+      </c>
+      <c r="J15" s="11">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A16" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="14">
+        <v>1</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16" s="14">
+        <v>32</v>
+      </c>
+      <c r="I16" s="14">
+        <v>22</v>
+      </c>
+      <c r="J16" s="11">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A17" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B17" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="14">
+        <v>1</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H17" s="14">
+        <v>32</v>
+      </c>
+      <c r="I17" s="14">
+        <v>22</v>
+      </c>
+      <c r="J17" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A18" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B18" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="14">
+        <v>2</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H18" s="14">
+        <v>32</v>
+      </c>
+      <c r="I18" s="14">
+        <v>22</v>
+      </c>
+      <c r="J18" s="11">
+        <v>-2208</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A19" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="14">
+        <v>2</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="14">
+        <v>32</v>
+      </c>
+      <c r="I19" s="14">
+        <v>22</v>
+      </c>
+      <c r="J19" s="11">
+        <v>-1408</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A20" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H20" s="14">
+        <v>32</v>
+      </c>
+      <c r="I20" s="14">
+        <v>22</v>
+      </c>
+      <c r="J20" s="11">
+        <v>-554</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A21" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B21" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21" s="14">
+        <v>32</v>
+      </c>
+      <c r="I21" s="14">
+        <v>22</v>
+      </c>
+      <c r="J21" s="11">
+        <v>-604</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A22" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B22" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H22" s="14">
+        <v>32</v>
+      </c>
+      <c r="I22" s="14">
+        <v>22</v>
+      </c>
+      <c r="J22" s="11">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A23" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H23" s="14">
+        <v>32</v>
+      </c>
+      <c r="I23" s="14">
+        <v>22</v>
+      </c>
+      <c r="J23" s="11">
+        <v>-3108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A24" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B24" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H24" s="14">
+        <v>32</v>
+      </c>
+      <c r="I24" s="14">
+        <v>22</v>
+      </c>
+      <c r="J24" s="11">
+        <v>-1008</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A25" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B25" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="14">
+        <v>2</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H25" s="14">
+        <v>32</v>
+      </c>
+      <c r="I25" s="14">
+        <v>22</v>
+      </c>
+      <c r="J25" s="11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A26" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B26" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="14">
+        <v>2</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H26" s="14">
+        <v>32</v>
+      </c>
+      <c r="I26" s="14">
+        <v>22</v>
+      </c>
+      <c r="J26" s="11">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A27" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H27" s="14">
+        <v>32</v>
+      </c>
+      <c r="I27" s="14">
+        <v>22</v>
+      </c>
+      <c r="J27" s="11">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A28" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B28" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H28" s="14">
+        <v>32</v>
+      </c>
+      <c r="I28" s="14">
+        <v>22</v>
+      </c>
+      <c r="J28" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A29" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H29" s="14">
+        <v>32</v>
+      </c>
+      <c r="I29" s="14">
+        <v>22</v>
+      </c>
+      <c r="J29" s="11">
+        <v>46</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -5143,7 +6090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J43"/>
   <sheetViews>

--- a/files/data.xlsx
+++ b/files/data.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
     <sheet name="manual" sheetId="5" r:id="rId2"/>
     <sheet name="2018" sheetId="3" r:id="rId3"/>
     <sheet name="2017" sheetId="2" r:id="rId4"/>
+    <sheet name="stocks" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="29">
   <si>
     <t>成交時間</t>
   </si>
@@ -97,12 +98,33 @@
   <si>
     <t>小型台指04</t>
   </si>
+  <si>
+    <t>鴻準期</t>
+  </si>
+  <si>
+    <t>沖銷日</t>
+  </si>
+  <si>
+    <t>商品</t>
+  </si>
+  <si>
+    <t>交割月份</t>
+  </si>
+  <si>
+    <t>交易稅</t>
+  </si>
+  <si>
+    <t>損益小計</t>
+  </si>
+  <si>
+    <t>淨損益</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +189,13 @@
       <name val="新細明體"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -192,7 +221,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -213,6 +242,9 @@
     <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -494,10 +526,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J106"/>
+  <dimension ref="A1:O115"/>
   <sheetViews>
-    <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74:J106"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A116" sqref="A116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3069,7 +3101,7 @@
         <v>7098</v>
       </c>
     </row>
-    <row r="81" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A81" s="12">
         <v>43144.541666666664</v>
       </c>
@@ -3101,7 +3133,7 @@
         <v>-252</v>
       </c>
     </row>
-    <row r="82" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A82" s="12">
         <v>43144.541666666664</v>
       </c>
@@ -3133,7 +3165,7 @@
         <v>-652</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A83" s="12">
         <v>43144.541666666664</v>
       </c>
@@ -3165,7 +3197,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="84" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A84" s="12">
         <v>43153.541666666664</v>
       </c>
@@ -3197,7 +3229,7 @@
         <v>-1404</v>
       </c>
     </row>
-    <row r="85" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A85" s="12">
         <v>43157.541666666664</v>
       </c>
@@ -3229,7 +3261,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="86" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A86" s="12">
         <v>43158.541666666664</v>
       </c>
@@ -3261,7 +3293,7 @@
         <v>-754</v>
       </c>
     </row>
-    <row r="87" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43159.079236111109</v>
       </c>
@@ -3293,7 +3325,7 @@
         <v>-1464</v>
       </c>
     </row>
-    <row r="88" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43159.055092592593</v>
       </c>
@@ -3325,7 +3357,7 @@
         <v>5668</v>
       </c>
     </row>
-    <row r="89" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43159.055092592593</v>
       </c>
@@ -3357,7 +3389,7 @@
         <v>5618</v>
       </c>
     </row>
-    <row r="90" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A90" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3389,7 +3421,7 @@
         <v>5292</v>
       </c>
     </row>
-    <row r="91" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A91" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3421,7 +3453,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="92" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A92" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3453,7 +3485,7 @@
         <v>-104</v>
       </c>
     </row>
-    <row r="93" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A93" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3485,7 +3517,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="94" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A94" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3516,8 +3548,9 @@
       <c r="J94" s="11">
         <v>-2208</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="O94" s="4"/>
+    </row>
+    <row r="95" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A95" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3548,8 +3581,9 @@
       <c r="J95" s="11">
         <v>-1408</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="O95" s="4"/>
+    </row>
+    <row r="96" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A96" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3580,8 +3614,9 @@
       <c r="J96" s="11">
         <v>-554</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="O96" s="4"/>
+    </row>
+    <row r="97" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A97" s="12">
         <v>43160.541666666664</v>
       </c>
@@ -3612,8 +3647,9 @@
       <c r="J97" s="11">
         <v>-604</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="O97" s="20"/>
+    </row>
+    <row r="98" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A98" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3645,7 +3681,7 @@
         <v>11492</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A99" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3677,7 +3713,7 @@
         <v>-3108</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A100" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3709,7 +3745,7 @@
         <v>-1008</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A101" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3741,7 +3777,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A102" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3773,7 +3809,7 @@
         <v>-408</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A103" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3805,7 +3841,7 @@
         <v>-764</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A104" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3837,7 +3873,7 @@
         <v>3792</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A105" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3869,7 +3905,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="21" x14ac:dyDescent="0.25">
       <c r="A106" s="12">
         <v>43164.541666666664</v>
       </c>
@@ -3899,6 +3935,294 @@
       </c>
       <c r="J106" s="11">
         <v>46</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A107" s="1">
+        <v>43164.418055555558</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D107" s="3">
+        <v>2</v>
+      </c>
+      <c r="E107" s="4">
+        <v>10720</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="3">
+        <v>10670</v>
+      </c>
+      <c r="H107" s="3">
+        <v>120</v>
+      </c>
+      <c r="I107" s="3">
+        <v>44</v>
+      </c>
+      <c r="J107" s="4">
+        <v>-5164</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A108" s="1">
+        <v>43165.427083333336</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D108" s="3">
+        <v>2</v>
+      </c>
+      <c r="E108" s="4">
+        <v>10624</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="3">
+        <v>10728</v>
+      </c>
+      <c r="H108" s="3">
+        <v>120</v>
+      </c>
+      <c r="I108" s="3">
+        <v>44</v>
+      </c>
+      <c r="J108" s="4">
+        <v>-10564</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A109" s="1">
+        <v>43165.427106481482</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D109" s="3">
+        <v>1</v>
+      </c>
+      <c r="E109" s="4">
+        <v>10614</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G109" s="3">
+        <v>10709</v>
+      </c>
+      <c r="H109" s="3">
+        <v>60</v>
+      </c>
+      <c r="I109" s="3">
+        <v>22</v>
+      </c>
+      <c r="J109" s="4">
+        <v>-4832</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A110" s="1">
+        <v>43165.427106481482</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D110" s="3">
+        <v>1</v>
+      </c>
+      <c r="E110" s="4">
+        <v>10614</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G110" s="3">
+        <v>10709</v>
+      </c>
+      <c r="H110" s="3">
+        <v>60</v>
+      </c>
+      <c r="I110" s="3">
+        <v>22</v>
+      </c>
+      <c r="J110" s="4">
+        <v>-4832</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A111" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B111" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D111" s="14">
+        <v>2</v>
+      </c>
+      <c r="E111" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H111" s="14">
+        <v>32</v>
+      </c>
+      <c r="I111" s="14">
+        <v>22</v>
+      </c>
+      <c r="J111" s="11">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" ht="21" x14ac:dyDescent="0.25">
+      <c r="A112" s="1">
+        <v>43166.458333333336</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="3">
+        <v>2</v>
+      </c>
+      <c r="E112" s="4">
+        <v>10775</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="3">
+        <v>10776</v>
+      </c>
+      <c r="H112" s="3">
+        <v>120</v>
+      </c>
+      <c r="I112" s="3">
+        <v>44</v>
+      </c>
+      <c r="J112" s="3">
+        <v>-64</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A113" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B113" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D113" s="14">
+        <v>2</v>
+      </c>
+      <c r="E113" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G113" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H113" s="14">
+        <v>32</v>
+      </c>
+      <c r="I113" s="14">
+        <v>22</v>
+      </c>
+      <c r="J113" s="11">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A114" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B114" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C114" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D114" s="14">
+        <v>2</v>
+      </c>
+      <c r="E114" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F114" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G114" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H114" s="14">
+        <v>32</v>
+      </c>
+      <c r="I114" s="14">
+        <v>22</v>
+      </c>
+      <c r="J114" s="11">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A115" s="12">
+        <v>43167.541666666664</v>
+      </c>
+      <c r="B115" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D115" s="14">
+        <v>2</v>
+      </c>
+      <c r="E115" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G115" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H115" s="14">
+        <v>32</v>
+      </c>
+      <c r="I115" s="14">
+        <v>22</v>
+      </c>
+      <c r="J115" s="11">
+        <v>-1308</v>
       </c>
     </row>
   </sheetData>
@@ -3910,7 +4234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H35" sqref="H35"/>
     </sheetView>
   </sheetViews>
@@ -4854,10 +5178,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J38"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="J71" sqref="A69:J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5382,707 +5706,1763 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+      <c r="A17" s="12">
         <v>43132.486840277779</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="3">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4">
+      <c r="B17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="14">
+        <v>2</v>
+      </c>
+      <c r="E17" s="15">
         <v>11169</v>
       </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="F17" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="14">
         <v>11175</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="14">
         <v>120</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="14">
         <v>44</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="14">
         <v>436</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+      <c r="A18" s="12">
         <v>43132.406678240739</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="3">
-        <v>1</v>
-      </c>
-      <c r="E18" s="4">
+      <c r="D18" s="14">
+        <v>1</v>
+      </c>
+      <c r="E18" s="15">
         <v>11107</v>
       </c>
-      <c r="F18" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="F18" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="14">
         <v>11174</v>
       </c>
-      <c r="H18" s="3">
-        <v>60</v>
-      </c>
-      <c r="I18" s="3">
-        <v>22</v>
-      </c>
-      <c r="J18" s="4">
+      <c r="H18" s="14">
+        <v>60</v>
+      </c>
+      <c r="I18" s="14">
+        <v>22</v>
+      </c>
+      <c r="J18" s="15">
         <v>-3432</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+      <c r="A19" s="12">
         <v>43133.375023148146</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3" t="s">
+      <c r="B19" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="3">
-        <v>1</v>
-      </c>
-      <c r="E19" s="4">
+      <c r="D19" s="14">
+        <v>1</v>
+      </c>
+      <c r="E19" s="15">
         <v>11170</v>
       </c>
-      <c r="F19" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G19" s="3">
+      <c r="F19" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="14">
         <v>11089</v>
       </c>
-      <c r="H19" s="3">
-        <v>60</v>
-      </c>
-      <c r="I19" s="3">
-        <v>22</v>
-      </c>
-      <c r="J19" s="4">
+      <c r="H19" s="14">
+        <v>60</v>
+      </c>
+      <c r="I19" s="14">
+        <v>22</v>
+      </c>
+      <c r="J19" s="15">
         <v>-4132</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+      <c r="A20" s="12">
         <v>43136.462083333332</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="3">
-        <v>2</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="C20" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="14">
+        <v>2</v>
+      </c>
+      <c r="E20" s="15">
         <v>10875</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="F20" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="14">
         <v>10891</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H20" s="14">
         <v>120</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I20" s="14">
         <v>44</v>
       </c>
-      <c r="J20" s="4">
+      <c r="J20" s="15">
         <v>-1764</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+      <c r="A21" s="12">
         <v>43136.548425925925</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D21" s="3">
-        <v>2</v>
-      </c>
-      <c r="E21" s="4">
+      <c r="C21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="14">
+        <v>2</v>
+      </c>
+      <c r="E21" s="15">
         <v>10930.5</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="F21" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G21" s="14">
         <v>10947</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="14">
         <v>120</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="14">
         <v>44</v>
       </c>
-      <c r="J21" s="4">
+      <c r="J21" s="15">
         <v>-1814</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+      <c r="A22" s="12">
         <v>43136.445694444446</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D22" s="3">
-        <v>2</v>
-      </c>
-      <c r="E22" s="4">
+      <c r="B22" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="14">
+        <v>2</v>
+      </c>
+      <c r="E22" s="15">
         <v>10892.5</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="F22" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G22" s="14">
         <v>10878</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="14">
         <v>120</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="14">
         <v>44</v>
       </c>
-      <c r="J22" s="4">
+      <c r="J22" s="15">
         <v>-1614</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+      <c r="A23" s="12">
         <v>43137.407256944447</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D23" s="3">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4">
+      <c r="B23" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="14">
+        <v>2</v>
+      </c>
+      <c r="E23" s="15">
         <v>10615.5</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="F23" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G23" s="14">
         <v>10544</v>
       </c>
-      <c r="H23" s="3">
+      <c r="H23" s="14">
         <v>120</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="14">
         <v>44</v>
       </c>
-      <c r="J23" s="4">
+      <c r="J23" s="15">
         <v>-7314</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+      <c r="A24" s="12">
         <v>43138.023946759262</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" s="3">
-        <v>2</v>
-      </c>
-      <c r="E24" s="4">
+      <c r="B24" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="14">
+        <v>2</v>
+      </c>
+      <c r="E24" s="15">
         <v>10315</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="3">
+      <c r="F24" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G24" s="14">
         <v>10496</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="14">
         <v>120</v>
       </c>
-      <c r="I24" s="3">
+      <c r="I24" s="14">
         <v>40</v>
       </c>
-      <c r="J24" s="4">
+      <c r="J24" s="15">
         <v>17940</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+      <c r="A25" s="12">
         <v>43138.101782407408</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D25" s="3">
-        <v>1</v>
-      </c>
-      <c r="E25" s="4">
+      <c r="B25" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="14">
+        <v>1</v>
+      </c>
+      <c r="E25" s="15">
         <v>10536</v>
       </c>
-      <c r="F25" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G25" s="3">
+      <c r="F25" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G25" s="14">
         <v>10541</v>
       </c>
-      <c r="H25" s="3">
-        <v>60</v>
-      </c>
-      <c r="I25" s="3">
-        <v>22</v>
-      </c>
-      <c r="J25" s="3">
+      <c r="H25" s="14">
+        <v>60</v>
+      </c>
+      <c r="I25" s="14">
+        <v>22</v>
+      </c>
+      <c r="J25" s="14">
         <v>168</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+      <c r="A26" s="12">
         <v>43138.101782407408</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D26" s="3">
-        <v>1</v>
-      </c>
-      <c r="E26" s="4">
+      <c r="B26" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="14">
+        <v>1</v>
+      </c>
+      <c r="E26" s="15">
         <v>10536</v>
       </c>
-      <c r="F26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="F26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="14">
         <v>10540</v>
       </c>
-      <c r="H26" s="3">
-        <v>60</v>
-      </c>
-      <c r="I26" s="3">
-        <v>22</v>
-      </c>
-      <c r="J26" s="3">
+      <c r="H26" s="14">
+        <v>60</v>
+      </c>
+      <c r="I26" s="14">
+        <v>22</v>
+      </c>
+      <c r="J26" s="14">
         <v>118</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+      <c r="A27" s="12">
         <v>43138.836238425924</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="3">
-        <v>2</v>
-      </c>
-      <c r="E27" s="4">
+      <c r="C27" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="14">
+        <v>2</v>
+      </c>
+      <c r="E27" s="15">
         <v>10563</v>
       </c>
-      <c r="F27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="F27" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G27" s="14">
         <v>10559</v>
       </c>
-      <c r="H27" s="3">
+      <c r="H27" s="14">
         <v>120</v>
       </c>
-      <c r="I27" s="3">
+      <c r="I27" s="14">
         <v>44</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="14">
         <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+      <c r="A28" s="12">
         <v>43138.985775462963</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C28" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D28" s="3">
-        <v>2</v>
-      </c>
-      <c r="E28" s="4">
+      <c r="C28" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D28" s="14">
+        <v>2</v>
+      </c>
+      <c r="E28" s="15">
         <v>10556</v>
       </c>
-      <c r="F28" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="3">
+      <c r="F28" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G28" s="14">
         <v>10593</v>
       </c>
-      <c r="H28" s="3">
+      <c r="H28" s="14">
         <v>120</v>
       </c>
-      <c r="I28" s="3">
+      <c r="I28" s="14">
         <v>44</v>
       </c>
-      <c r="J28" s="4">
+      <c r="J28" s="15">
         <v>-3864</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+      <c r="A29" s="12">
         <v>43139.370937500003</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C29" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D29" s="3">
-        <v>2</v>
-      </c>
-      <c r="E29" s="4">
+      <c r="C29" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="14">
+        <v>2</v>
+      </c>
+      <c r="E29" s="15">
         <v>10594</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G29" s="3">
+      <c r="F29" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="14">
         <v>10544</v>
       </c>
-      <c r="H29" s="3">
+      <c r="H29" s="14">
         <v>120</v>
       </c>
-      <c r="I29" s="3">
+      <c r="I29" s="14">
         <v>44</v>
       </c>
-      <c r="J29" s="4">
+      <c r="J29" s="15">
         <v>4836</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+      <c r="A30" s="12">
         <v>43139.444988425923</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="3">
-        <v>1</v>
-      </c>
-      <c r="E30" s="4">
+      <c r="C30" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="14">
+        <v>1</v>
+      </c>
+      <c r="E30" s="15">
         <v>10493</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G30" s="3">
+      <c r="F30" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G30" s="14">
         <v>10524</v>
       </c>
-      <c r="H30" s="3">
-        <v>60</v>
-      </c>
-      <c r="I30" s="3">
+      <c r="H30" s="14">
+        <v>60</v>
+      </c>
+      <c r="I30" s="14">
         <v>21</v>
       </c>
-      <c r="J30" s="4">
+      <c r="J30" s="15">
         <v>-1631</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+      <c r="A31" s="12">
         <v>43139.627349537041</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C31" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D31" s="3">
-        <v>1</v>
-      </c>
-      <c r="E31" s="4">
+      <c r="B31" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="14">
+        <v>1</v>
+      </c>
+      <c r="E31" s="15">
         <v>10530</v>
       </c>
-      <c r="F31" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G31" s="3">
+      <c r="F31" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G31" s="14">
         <v>10513</v>
       </c>
-      <c r="H31" s="3">
-        <v>60</v>
-      </c>
-      <c r="I31" s="3">
-        <v>22</v>
-      </c>
-      <c r="J31" s="3">
+      <c r="H31" s="14">
+        <v>60</v>
+      </c>
+      <c r="I31" s="14">
+        <v>22</v>
+      </c>
+      <c r="J31" s="14">
         <v>-932</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A32" s="7">
-        <v>43139.627349537041</v>
-      </c>
-      <c r="B32" s="8" t="s">
+      <c r="A32" s="12">
+        <v>43140.627349537041</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="14">
+        <v>1</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G32" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H32" s="14">
+        <v>32</v>
+      </c>
+      <c r="I32" s="14">
+        <v>22</v>
+      </c>
+      <c r="J32" s="17">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A33" s="12">
+        <v>43140.627349537041</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D33" s="14">
+        <v>1</v>
+      </c>
+      <c r="E33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H33" s="14">
+        <v>32</v>
+      </c>
+      <c r="I33" s="14">
+        <v>22</v>
+      </c>
+      <c r="J33" s="18">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A34" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="14">
+        <v>2</v>
+      </c>
+      <c r="E34" s="15">
+        <v>10227</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="14">
+        <v>10408</v>
+      </c>
+      <c r="H34" s="14">
+        <v>120</v>
+      </c>
+      <c r="I34" s="14">
+        <v>40</v>
+      </c>
+      <c r="J34" s="15">
+        <v>17940</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A35" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1</v>
+      </c>
+      <c r="E35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H35" s="14">
+        <v>32</v>
+      </c>
+      <c r="I35" s="14">
+        <v>22</v>
+      </c>
+      <c r="J35" s="10">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A36" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B36" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D36" s="14">
+        <v>1</v>
+      </c>
+      <c r="E36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H36" s="14">
+        <v>32</v>
+      </c>
+      <c r="I36" s="14">
+        <v>22</v>
+      </c>
+      <c r="J36" s="10">
+        <v>-1502</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A37" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="14">
+        <v>1</v>
+      </c>
+      <c r="E37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H37" s="14">
+        <v>32</v>
+      </c>
+      <c r="I37" s="14">
+        <v>22</v>
+      </c>
+      <c r="J37" s="10">
+        <v>2148</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A38" s="12">
+        <v>43143.541666666664</v>
+      </c>
+      <c r="B38" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="14">
+        <v>1</v>
+      </c>
+      <c r="E38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H38" s="14">
+        <v>32</v>
+      </c>
+      <c r="I38" s="14">
+        <v>22</v>
+      </c>
+      <c r="J38" s="10">
+        <v>7098</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A39" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B39" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D39" s="14">
+        <v>1</v>
+      </c>
+      <c r="E39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="14">
+        <v>32</v>
+      </c>
+      <c r="I39" s="14">
+        <v>22</v>
+      </c>
+      <c r="J39" s="11">
+        <v>-252</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A40" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B40" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D40" s="14">
+        <v>1</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H40" s="14">
+        <v>32</v>
+      </c>
+      <c r="I40" s="14">
+        <v>22</v>
+      </c>
+      <c r="J40" s="11">
+        <v>-652</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A41" s="12">
+        <v>43144.541666666664</v>
+      </c>
+      <c r="B41" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H41" s="14">
+        <v>32</v>
+      </c>
+      <c r="I41" s="14">
+        <v>22</v>
+      </c>
+      <c r="J41" s="11">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A42" s="12">
+        <v>43153.541666666664</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="14">
+        <v>1</v>
+      </c>
+      <c r="E42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H42" s="14">
+        <v>32</v>
+      </c>
+      <c r="I42" s="14">
+        <v>22</v>
+      </c>
+      <c r="J42" s="10">
+        <v>-1404</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A43" s="12">
+        <v>43157.541666666664</v>
+      </c>
+      <c r="B43" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D43" s="14">
+        <v>1</v>
+      </c>
+      <c r="E43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G43" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H43" s="14">
+        <v>32</v>
+      </c>
+      <c r="I43" s="14">
+        <v>22</v>
+      </c>
+      <c r="J43" s="10">
+        <v>9996</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A44" s="12">
+        <v>43158.541666666664</v>
+      </c>
+      <c r="B44" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D44" s="14">
+        <v>1</v>
+      </c>
+      <c r="E44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H44" s="14">
+        <v>32</v>
+      </c>
+      <c r="I44" s="14">
+        <v>22</v>
+      </c>
+      <c r="J44" s="11">
+        <v>-754</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43159.079236111109</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C32" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="8">
-        <v>1</v>
-      </c>
-      <c r="E32" s="9">
-        <v>10530</v>
-      </c>
-      <c r="F32" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G32" s="8">
-        <v>10513</v>
-      </c>
-      <c r="H32" s="8">
+      <c r="C45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="3">
+        <v>2</v>
+      </c>
+      <c r="E45" s="4">
+        <v>10759</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="3">
+        <v>10772</v>
+      </c>
+      <c r="H45" s="3">
+        <v>120</v>
+      </c>
+      <c r="I45" s="3">
+        <v>44</v>
+      </c>
+      <c r="J45" s="4">
+        <v>-1464</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43159.055092592593</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D46" s="3">
+        <v>1</v>
+      </c>
+      <c r="E46" s="4">
+        <v>10629</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10744</v>
+      </c>
+      <c r="H46" s="3">
+        <v>60</v>
+      </c>
+      <c r="I46" s="3">
+        <v>22</v>
+      </c>
+      <c r="J46" s="4">
+        <v>5668</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43159.055092592593</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="3">
+        <v>1</v>
+      </c>
+      <c r="E47" s="4">
+        <v>10629</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G47" s="3">
+        <v>10743</v>
+      </c>
+      <c r="H47" s="3">
+        <v>60</v>
+      </c>
+      <c r="I47" s="3">
+        <v>22</v>
+      </c>
+      <c r="J47" s="4">
+        <v>5618</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A48" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B48" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D48" s="14">
+        <v>2</v>
+      </c>
+      <c r="E48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G48" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H48" s="14">
         <v>32</v>
       </c>
-      <c r="I32" s="8">
-        <v>22</v>
-      </c>
-      <c r="J32" s="9">
-        <v>1398</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A33" s="7">
-        <v>43139.627349537041</v>
-      </c>
-      <c r="B33" s="8" t="s">
+      <c r="I48" s="14">
+        <v>22</v>
+      </c>
+      <c r="J48" s="10">
+        <v>5292</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A49" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B49" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D49" s="14">
+        <v>2</v>
+      </c>
+      <c r="E49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G49" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H49" s="14">
+        <v>32</v>
+      </c>
+      <c r="I49" s="14">
+        <v>22</v>
+      </c>
+      <c r="J49" s="11">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A50" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D50" s="14">
+        <v>1</v>
+      </c>
+      <c r="E50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G50" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H50" s="14">
+        <v>32</v>
+      </c>
+      <c r="I50" s="14">
+        <v>22</v>
+      </c>
+      <c r="J50" s="11">
+        <v>-104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A51" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C51" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="14">
+        <v>1</v>
+      </c>
+      <c r="E51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G51" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H51" s="14">
+        <v>32</v>
+      </c>
+      <c r="I51" s="14">
+        <v>22</v>
+      </c>
+      <c r="J51" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A52" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C52" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="14">
+        <v>2</v>
+      </c>
+      <c r="E52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G52" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H52" s="14">
+        <v>32</v>
+      </c>
+      <c r="I52" s="14">
+        <v>22</v>
+      </c>
+      <c r="J52" s="11">
+        <v>-2208</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A53" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C53" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="14">
+        <v>2</v>
+      </c>
+      <c r="E53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G53" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H53" s="14">
+        <v>32</v>
+      </c>
+      <c r="I53" s="14">
+        <v>22</v>
+      </c>
+      <c r="J53" s="11">
+        <v>-1408</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A54" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C54" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="14">
+        <v>2</v>
+      </c>
+      <c r="E54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H54" s="14">
+        <v>32</v>
+      </c>
+      <c r="I54" s="14">
+        <v>22</v>
+      </c>
+      <c r="J54" s="11">
+        <v>-554</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A55" s="12">
+        <v>43160.541666666664</v>
+      </c>
+      <c r="B55" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C55" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D55" s="14">
+        <v>2</v>
+      </c>
+      <c r="E55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H55" s="14">
+        <v>32</v>
+      </c>
+      <c r="I55" s="14">
+        <v>22</v>
+      </c>
+      <c r="J55" s="11">
+        <v>-604</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A56" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D56" s="14">
+        <v>2</v>
+      </c>
+      <c r="E56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H56" s="14">
+        <v>32</v>
+      </c>
+      <c r="I56" s="14">
+        <v>22</v>
+      </c>
+      <c r="J56" s="11">
+        <v>11492</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A57" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D57" s="14">
+        <v>2</v>
+      </c>
+      <c r="E57" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H57" s="14">
+        <v>32</v>
+      </c>
+      <c r="I57" s="14">
+        <v>22</v>
+      </c>
+      <c r="J57" s="11">
+        <v>-3108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A58" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B58" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C58" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D58" s="14">
+        <v>2</v>
+      </c>
+      <c r="E58" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H58" s="14">
+        <v>32</v>
+      </c>
+      <c r="I58" s="14">
+        <v>22</v>
+      </c>
+      <c r="J58" s="11">
+        <v>-1008</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A59" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B59" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C59" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D59" s="14">
+        <v>2</v>
+      </c>
+      <c r="E59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H59" s="14">
+        <v>32</v>
+      </c>
+      <c r="I59" s="14">
+        <v>22</v>
+      </c>
+      <c r="J59" s="11">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A60" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B60" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C60" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D60" s="14">
+        <v>2</v>
+      </c>
+      <c r="E60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H60" s="14">
+        <v>32</v>
+      </c>
+      <c r="I60" s="14">
+        <v>22</v>
+      </c>
+      <c r="J60" s="11">
+        <v>-408</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A61" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B61" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C61" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="14">
+        <v>2</v>
+      </c>
+      <c r="E61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H61" s="14">
+        <v>32</v>
+      </c>
+      <c r="I61" s="14">
+        <v>22</v>
+      </c>
+      <c r="J61" s="11">
+        <v>3792</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A62" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B62" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="14">
+        <v>2</v>
+      </c>
+      <c r="E62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H62" s="14">
+        <v>32</v>
+      </c>
+      <c r="I62" s="14">
+        <v>22</v>
+      </c>
+      <c r="J62" s="11">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A63" s="12">
+        <v>43164.541666666664</v>
+      </c>
+      <c r="B63" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="14">
+        <v>2</v>
+      </c>
+      <c r="E63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="G63" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H63" s="14">
+        <v>32</v>
+      </c>
+      <c r="I63" s="14">
+        <v>22</v>
+      </c>
+      <c r="J63" s="11">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>43160.97583333333</v>
+      </c>
+      <c r="B64" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="8">
-        <v>1</v>
-      </c>
-      <c r="E33" s="9">
-        <v>10530</v>
-      </c>
-      <c r="F33" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G33" s="8">
-        <v>10513</v>
-      </c>
-      <c r="H33" s="8">
-        <v>32</v>
-      </c>
-      <c r="I33" s="8">
-        <v>22</v>
-      </c>
-      <c r="J33" s="9">
-        <v>-652</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A34" s="7">
-        <v>43139.627349537041</v>
-      </c>
-      <c r="B34" s="8" t="s">
+      <c r="C64" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D64" s="3">
+        <v>1</v>
+      </c>
+      <c r="E64" s="4">
+        <v>10746</v>
+      </c>
+      <c r="F64" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G64" s="3">
+        <v>10754</v>
+      </c>
+      <c r="H64" s="3">
+        <v>60</v>
+      </c>
+      <c r="I64" s="3">
+        <v>22</v>
+      </c>
+      <c r="J64" s="3">
+        <v>-482</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>43160.97583333333</v>
+      </c>
+      <c r="B65" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" s="8">
-        <v>1</v>
-      </c>
-      <c r="E34" s="9">
-        <v>10530</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="8">
-        <v>10513</v>
-      </c>
-      <c r="H34" s="8">
-        <v>32</v>
-      </c>
-      <c r="I34" s="8">
-        <v>22</v>
-      </c>
-      <c r="J34" s="9">
-        <v>1298</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A35" s="7">
-        <v>43139.627349537041</v>
-      </c>
-      <c r="B35" s="8" t="s">
+      <c r="C65" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D65" s="3">
+        <v>1</v>
+      </c>
+      <c r="E65" s="4">
+        <v>10745</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="3">
+        <v>10755</v>
+      </c>
+      <c r="H65" s="3">
+        <v>60</v>
+      </c>
+      <c r="I65" s="3">
+        <v>22</v>
+      </c>
+      <c r="J65" s="3">
+        <v>-582</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>43164.500694444447</v>
+      </c>
+      <c r="B66" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D35" s="8">
-        <v>1</v>
-      </c>
-      <c r="E35" s="9">
-        <v>10530</v>
-      </c>
-      <c r="F35" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G35" s="8">
-        <v>10513</v>
-      </c>
-      <c r="H35" s="8">
-        <v>32</v>
-      </c>
-      <c r="I35" s="8">
-        <v>22</v>
-      </c>
-      <c r="J35" s="9">
-        <v>-1502</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A36" s="7">
-        <v>43139.627349537041</v>
-      </c>
-      <c r="B36" s="8" t="s">
+      <c r="C66" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D66" s="3">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4">
+        <v>10654</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G66" s="3">
+        <v>10643</v>
+      </c>
+      <c r="H66" s="3">
+        <v>120</v>
+      </c>
+      <c r="I66" s="3">
+        <v>44</v>
+      </c>
+      <c r="J66" s="3">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>43162.066562499997</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D67" s="3">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4">
+        <v>10665</v>
+      </c>
+      <c r="F67" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G67" s="3">
+        <v>10659</v>
+      </c>
+      <c r="H67" s="3">
+        <v>120</v>
+      </c>
+      <c r="I67" s="3">
+        <v>44</v>
+      </c>
+      <c r="J67" s="3">
+        <v>-764</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>43164.418055555558</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D68" s="3">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4">
+        <v>10720</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G68" s="3">
+        <v>10670</v>
+      </c>
+      <c r="H68" s="3">
+        <v>120</v>
+      </c>
+      <c r="I68" s="3">
+        <v>44</v>
+      </c>
+      <c r="J68" s="4">
+        <v>-5164</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>43165.427083333336</v>
+      </c>
+      <c r="B69" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D36" s="8">
-        <v>1</v>
-      </c>
-      <c r="E36" s="9">
-        <v>10530</v>
-      </c>
-      <c r="F36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G36" s="8">
-        <v>10513</v>
-      </c>
-      <c r="H36" s="8">
-        <v>32</v>
-      </c>
-      <c r="I36" s="8">
-        <v>22</v>
-      </c>
-      <c r="J36" s="9">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
-        <v>43143.541666666664</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D37" s="3">
-        <v>2</v>
-      </c>
-      <c r="E37" s="4">
-        <v>10227</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G37" s="3">
-        <v>10408</v>
-      </c>
-      <c r="H37" s="3">
+      <c r="C69" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D69" s="3">
+        <v>2</v>
+      </c>
+      <c r="E69" s="4">
+        <v>10624</v>
+      </c>
+      <c r="F69" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="3">
+        <v>10728</v>
+      </c>
+      <c r="H69" s="3">
         <v>120</v>
       </c>
-      <c r="I37" s="3">
-        <v>40</v>
-      </c>
-      <c r="J37" s="4">
-        <v>17940</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="21" x14ac:dyDescent="0.25">
-      <c r="A38" s="7">
-        <v>43139.627349537041</v>
-      </c>
-      <c r="B38" s="8" t="s">
+      <c r="I69" s="3">
+        <v>44</v>
+      </c>
+      <c r="J69" s="4">
+        <v>-10564</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>43165.427106481482</v>
+      </c>
+      <c r="B70" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D38" s="8">
-        <v>1</v>
-      </c>
-      <c r="E38" s="9">
-        <v>10530</v>
-      </c>
-      <c r="F38" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="8">
-        <v>10513</v>
-      </c>
-      <c r="H38" s="8">
-        <v>32</v>
-      </c>
-      <c r="I38" s="8">
-        <v>22</v>
-      </c>
-      <c r="J38" s="9">
-        <v>7150</v>
+      <c r="C70" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D70" s="3">
+        <v>1</v>
+      </c>
+      <c r="E70" s="4">
+        <v>10614</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="3">
+        <v>10709</v>
+      </c>
+      <c r="H70" s="3">
+        <v>60</v>
+      </c>
+      <c r="I70" s="3">
+        <v>22</v>
+      </c>
+      <c r="J70" s="4">
+        <v>-4832</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" ht="21" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>43165.427106481482</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D71" s="3">
+        <v>1</v>
+      </c>
+      <c r="E71" s="4">
+        <v>10614</v>
+      </c>
+      <c r="F71" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G71" s="3">
+        <v>10709</v>
+      </c>
+      <c r="H71" s="3">
+        <v>60</v>
+      </c>
+      <c r="I71" s="3">
+        <v>22</v>
+      </c>
+      <c r="J71" s="4">
+        <v>-4832</v>
       </c>
     </row>
   </sheetData>
@@ -7484,4 +8864,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="18" x14ac:dyDescent="0.2">
+      <c r="A2" s="21">
+        <v>43165</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="11">
+        <v>201804</v>
+      </c>
+      <c r="D2" s="11">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>-2000</v>
+      </c>
+      <c r="F2" s="11">
+        <v>14</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3</v>
+      </c>
+      <c r="H2" s="10">
+        <v>-2034</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>